--- a/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
+++ b/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -505,99 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -614,12 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -638,6 +540,105 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -996,7 +997,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
@@ -1007,109 +1008,109 @@
       <c r="E1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="50">
+      <c r="F1" s="85">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="50">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="85">
         <v>6.02</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="50">
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="85">
         <v>7.02</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="50">
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="85">
         <v>8.02</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="50">
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="85">
         <v>9.02</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="50" t="s">
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="50">
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="86"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="85">
         <v>19.02</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="50">
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="86"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="85">
         <v>20.02</v>
       </c>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="50">
+      <c r="BK1" s="86"/>
+      <c r="BL1" s="86"/>
+      <c r="BM1" s="86"/>
+      <c r="BN1" s="86"/>
+      <c r="BO1" s="86"/>
+      <c r="BP1" s="86"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="85">
         <v>21.02</v>
       </c>
-      <c r="BS1" s="51"/>
-      <c r="BT1" s="51"/>
-      <c r="BU1" s="51"/>
-      <c r="BV1" s="51"/>
-      <c r="BW1" s="51"/>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="52"/>
-      <c r="BZ1" s="50">
+      <c r="BS1" s="86"/>
+      <c r="BT1" s="86"/>
+      <c r="BU1" s="86"/>
+      <c r="BV1" s="86"/>
+      <c r="BW1" s="86"/>
+      <c r="BX1" s="86"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="85">
         <v>22.02</v>
       </c>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="52"/>
+      <c r="CA1" s="86"/>
+      <c r="CB1" s="86"/>
+      <c r="CC1" s="86"/>
+      <c r="CD1" s="86"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
+      <c r="CG1" s="87"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="84"/>
       <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1362,25 +1363,25 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
       <c r="U3" s="11"/>
       <c r="V3" s="9"/>
       <c r="AC3" s="11"/>
@@ -1400,10 +1401,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
@@ -1419,19 +1420,19 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
       <c r="U5" s="13"/>
       <c r="AC5" s="13"/>
       <c r="AK5" s="13"/>
@@ -1443,10 +1444,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="39" t="s">
         <v>34</v>
       </c>
@@ -1535,21 +1536,21 @@
       <c r="A7" s="48"/>
       <c r="B7" s="47"/>
       <c r="C7" s="49"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="85" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
@@ -1624,8 +1625,8 @@
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
       <c r="C8" s="49"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="82" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="12"/>
@@ -1710,16 +1711,16 @@
       <c r="CG8" s="13"/>
     </row>
     <row r="9" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="82">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="25" t="s">
         <v>27</v>
       </c>
@@ -1727,9 +1728,9 @@
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="U9" s="17"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="15"/>
       <c r="AK9" s="17"/>
@@ -1747,10 +1748,10 @@
       <c r="CG9" s="17"/>
     </row>
     <row r="10" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="41" t="s">
         <v>28</v>
       </c>
@@ -1776,10 +1777,10 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="26" t="s">
         <v>33</v>
       </c>
@@ -1787,9 +1788,9 @@
       <c r="M11" s="20"/>
       <c r="N11" s="18"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="18"/>
       <c r="AK11" s="20"/>
@@ -1807,10 +1808,10 @@
       <c r="CG11" s="20"/>
     </row>
     <row r="12" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="41" t="s">
         <v>34</v>
       </c>
@@ -1898,8 +1899,8 @@
     <row r="13" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="41" t="s">
         <v>31</v>
       </c>
@@ -1919,9 +1920,9 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
@@ -1987,8 +1988,8 @@
     <row r="14" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="45"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="41" t="s">
         <v>32</v>
       </c>
@@ -2074,17 +2075,17 @@
       <c r="CG14" s="20"/>
     </row>
     <row r="15" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="82">
         <v>3</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="93" t="s">
+      <c r="D15" s="92"/>
+      <c r="E15" s="60" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="9"/>
@@ -2092,11 +2093,11 @@
       <c r="N15" s="9"/>
       <c r="U15" s="11"/>
       <c r="V15" s="9"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="97"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="64"/>
       <c r="AD15" s="9"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="9"/>
@@ -2113,10 +2114,10 @@
       <c r="CG15" s="11"/>
     </row>
     <row r="16" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="89"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="39" t="s">
         <v>28</v>
       </c>
@@ -2132,20 +2133,20 @@
       <c r="CG16" s="13"/>
     </row>
     <row r="17" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="98"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="65"/>
       <c r="AK17" s="13"/>
       <c r="AS17" s="13"/>
       <c r="BA17" s="13"/>
@@ -2155,10 +2156,10 @@
       <c r="CG17" s="13"/>
     </row>
     <row r="18" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="39" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2249,7 @@
       <c r="B19" s="47"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="12"/>
@@ -2270,11 +2271,11 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="98"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="65"/>
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
@@ -2337,7 +2338,7 @@
       <c r="B20" s="47"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="90" t="s">
+      <c r="E20" s="57" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="12"/>
@@ -2422,16 +2423,16 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="82">
         <v>4</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="76"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="25" t="s">
         <v>27</v>
       </c>
@@ -2445,14 +2446,14 @@
       <c r="AK21" s="17"/>
       <c r="AL21" s="15"/>
       <c r="AS21" s="17"/>
-      <c r="AT21" s="94"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="97"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="62"/>
+      <c r="AZ21" s="62"/>
+      <c r="BA21" s="64"/>
       <c r="BB21" s="15"/>
       <c r="BI21" s="17"/>
       <c r="BJ21" s="15"/>
@@ -2463,10 +2464,10 @@
       <c r="CG21" s="17"/>
     </row>
     <row r="22" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="41" t="s">
         <v>29</v>
       </c>
@@ -2492,10 +2493,10 @@
       <c r="CG22" s="20"/>
     </row>
     <row r="23" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="26" t="s">
         <v>33</v>
       </c>
@@ -2511,32 +2512,32 @@
       <c r="AS23" s="20"/>
       <c r="AT23" s="18"/>
       <c r="BA23" s="20"/>
-      <c r="BB23" s="96"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="81"/>
-      <c r="BF23" s="81"/>
-      <c r="BG23" s="81"/>
-      <c r="BH23" s="81"/>
-      <c r="BI23" s="98"/>
-      <c r="BJ23" s="96"/>
-      <c r="BK23" s="81"/>
-      <c r="BL23" s="81"/>
-      <c r="BM23" s="81"/>
-      <c r="BN23" s="81"/>
-      <c r="BO23" s="81"/>
-      <c r="BP23" s="81"/>
-      <c r="BQ23" s="98"/>
+      <c r="BB23" s="63"/>
+      <c r="BC23" s="50"/>
+      <c r="BD23" s="50"/>
+      <c r="BE23" s="50"/>
+      <c r="BF23" s="50"/>
+      <c r="BG23" s="50"/>
+      <c r="BH23" s="50"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="63"/>
+      <c r="BK23" s="50"/>
+      <c r="BL23" s="50"/>
+      <c r="BM23" s="50"/>
+      <c r="BN23" s="50"/>
+      <c r="BO23" s="50"/>
+      <c r="BP23" s="50"/>
+      <c r="BQ23" s="65"/>
       <c r="BR23" s="18"/>
       <c r="BY23" s="20"/>
       <c r="BZ23" s="18"/>
       <c r="CG23" s="20"/>
     </row>
     <row r="24" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="41" t="s">
         <v>34</v>
       </c>
@@ -2624,9 +2625,9 @@
     <row r="25" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="45"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="87" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="18"/>
@@ -2677,22 +2678,22 @@
       <c r="AY25" s="19"/>
       <c r="AZ25" s="19"/>
       <c r="BA25" s="20"/>
-      <c r="BB25" s="96"/>
-      <c r="BC25" s="81"/>
-      <c r="BD25" s="81"/>
-      <c r="BE25" s="81"/>
-      <c r="BF25" s="81"/>
-      <c r="BG25" s="81"/>
-      <c r="BH25" s="81"/>
-      <c r="BI25" s="98"/>
-      <c r="BJ25" s="96"/>
-      <c r="BK25" s="81"/>
-      <c r="BL25" s="81"/>
-      <c r="BM25" s="81"/>
-      <c r="BN25" s="81"/>
-      <c r="BO25" s="81"/>
-      <c r="BP25" s="81"/>
-      <c r="BQ25" s="98"/>
+      <c r="BB25" s="63"/>
+      <c r="BC25" s="50"/>
+      <c r="BD25" s="50"/>
+      <c r="BE25" s="50"/>
+      <c r="BF25" s="50"/>
+      <c r="BG25" s="50"/>
+      <c r="BH25" s="50"/>
+      <c r="BI25" s="65"/>
+      <c r="BJ25" s="63"/>
+      <c r="BK25" s="50"/>
+      <c r="BL25" s="50"/>
+      <c r="BM25" s="50"/>
+      <c r="BN25" s="50"/>
+      <c r="BO25" s="50"/>
+      <c r="BP25" s="50"/>
+      <c r="BQ25" s="65"/>
       <c r="BR25" s="18"/>
       <c r="BS25" s="19"/>
       <c r="BT25" s="19"/>
@@ -2713,9 +2714,9 @@
     <row r="26" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="45"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="87" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="56" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="18"/>
@@ -2800,16 +2801,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="A27" s="82">
         <v>5</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="38" t="s">
         <v>27</v>
       </c>
@@ -2835,10 +2836,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="89"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="39" t="s">
         <v>28</v>
       </c>
@@ -2854,10 +2855,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="89"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="40" t="s">
         <v>33</v>
       </c>
@@ -2867,19 +2868,19 @@
       <c r="AK29" s="13"/>
       <c r="AS29" s="13"/>
       <c r="BA29" s="13"/>
-      <c r="BB29" s="81"/>
-      <c r="BC29" s="81"/>
-      <c r="BD29" s="81"/>
+      <c r="BB29" s="50"/>
+      <c r="BC29" s="50"/>
+      <c r="BD29" s="50"/>
       <c r="BI29" s="13"/>
       <c r="BQ29" s="13"/>
       <c r="BY29" s="13"/>
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="89"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="39" t="s">
         <v>34</v>
       </c>
@@ -2968,8 +2969,8 @@
       <c r="A31" s="48"/>
       <c r="B31" s="47"/>
       <c r="C31" s="49"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="82" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="12"/>
@@ -3057,8 +3058,8 @@
       <c r="A32" s="48"/>
       <c r="B32" s="47"/>
       <c r="C32" s="49"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="82" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="12"/>
@@ -3143,16 +3144,16 @@
       <c r="CG32" s="13"/>
     </row>
     <row r="33" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
+      <c r="A33" s="82">
         <v>6</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="76"/>
+      <c r="D33" s="89"/>
       <c r="E33" s="25" t="s">
         <v>27</v>
       </c>
@@ -3178,10 +3179,10 @@
       <c r="CG33" s="17"/>
     </row>
     <row r="34" spans="1:85" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
@@ -3207,10 +3208,10 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="26" t="s">
         <v>33</v>
       </c>
@@ -3236,10 +3237,10 @@
       <c r="CG35" s="20"/>
     </row>
     <row r="36" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="41" t="s">
         <v>34</v>
       </c>
@@ -3327,8 +3328,8 @@
     <row r="37" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="45"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="41" t="s">
         <v>31</v>
       </c>
@@ -3356,7 +3357,7 @@
       <c r="AA37" s="19"/>
       <c r="AB37" s="19"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="96"/>
+      <c r="AD37" s="63"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
@@ -3416,8 +3417,8 @@
     <row r="38" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="45"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="41" t="s">
         <v>32</v>
       </c>
@@ -3503,17 +3504,17 @@
       <c r="CG38" s="20"/>
     </row>
     <row r="39" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
+      <c r="A39" s="82">
         <v>7</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="93" t="s">
+      <c r="D39" s="92"/>
+      <c r="E39" s="60" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="9"/>
@@ -3538,10 +3539,10 @@
       <c r="CG39" s="11"/>
     </row>
     <row r="40" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="89"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="96"/>
       <c r="E40" s="39" t="s">
         <v>30</v>
       </c>
@@ -3557,16 +3558,16 @@
       <c r="CG40" s="13"/>
     </row>
     <row r="41" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="89"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="81"/>
+      <c r="H41" s="50"/>
       <c r="M41" s="13"/>
-      <c r="Q41" s="81"/>
+      <c r="Q41" s="50"/>
       <c r="U41" s="13"/>
       <c r="AC41" s="13"/>
       <c r="AK41" s="13"/>
@@ -3578,10 +3579,10 @@
       <c r="CG41" s="13"/>
     </row>
     <row r="42" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="89"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="39" t="s">
         <v>34</v>
       </c>
@@ -3671,7 +3672,7 @@
       <c r="B43" s="44"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
-      <c r="E43" s="90" t="s">
+      <c r="E43" s="57" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="12"/>
@@ -3760,7 +3761,7 @@
       <c r="B44" s="44"/>
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
-      <c r="E44" s="90" t="s">
+      <c r="E44" s="57" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="12"/>
@@ -3845,16 +3846,16 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56">
+      <c r="A45" s="82">
         <v>8</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="76"/>
+      <c r="D45" s="89"/>
       <c r="E45" s="25" t="s">
         <v>27</v>
       </c>
@@ -3880,10 +3881,10 @@
       <c r="CG45" s="17"/>
     </row>
     <row r="46" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
       <c r="E46" s="41" t="s">
         <v>29</v>
       </c>
@@ -3909,10 +3910,10 @@
       <c r="CG46" s="20"/>
     </row>
     <row r="47" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
       <c r="E47" s="26" t="s">
         <v>33</v>
       </c>
@@ -3928,44 +3929,44 @@
       <c r="AS47" s="20"/>
       <c r="AT47" s="18"/>
       <c r="BA47" s="20"/>
-      <c r="BB47" s="96"/>
-      <c r="BC47" s="81"/>
-      <c r="BD47" s="81"/>
-      <c r="BE47" s="81"/>
-      <c r="BF47" s="81"/>
-      <c r="BG47" s="81"/>
-      <c r="BH47" s="81"/>
-      <c r="BI47" s="98"/>
-      <c r="BJ47" s="96"/>
-      <c r="BK47" s="81"/>
-      <c r="BL47" s="81"/>
-      <c r="BM47" s="81"/>
-      <c r="BN47" s="81"/>
-      <c r="BO47" s="81"/>
-      <c r="BP47" s="81"/>
-      <c r="BQ47" s="98"/>
-      <c r="BR47" s="96"/>
-      <c r="BS47" s="81"/>
-      <c r="BT47" s="81"/>
-      <c r="BU47" s="81"/>
-      <c r="BV47" s="81"/>
-      <c r="BW47" s="81"/>
-      <c r="BX47" s="81"/>
-      <c r="BY47" s="98"/>
-      <c r="BZ47" s="96"/>
-      <c r="CA47" s="81"/>
-      <c r="CB47" s="81"/>
-      <c r="CC47" s="81"/>
-      <c r="CD47" s="81"/>
-      <c r="CE47" s="81"/>
-      <c r="CF47" s="81"/>
-      <c r="CG47" s="98"/>
+      <c r="BB47" s="63"/>
+      <c r="BC47" s="50"/>
+      <c r="BD47" s="50"/>
+      <c r="BE47" s="50"/>
+      <c r="BF47" s="50"/>
+      <c r="BG47" s="50"/>
+      <c r="BH47" s="50"/>
+      <c r="BI47" s="65"/>
+      <c r="BJ47" s="63"/>
+      <c r="BK47" s="50"/>
+      <c r="BL47" s="50"/>
+      <c r="BM47" s="50"/>
+      <c r="BN47" s="50"/>
+      <c r="BO47" s="50"/>
+      <c r="BP47" s="50"/>
+      <c r="BQ47" s="65"/>
+      <c r="BR47" s="63"/>
+      <c r="BS47" s="50"/>
+      <c r="BT47" s="50"/>
+      <c r="BU47" s="50"/>
+      <c r="BV47" s="50"/>
+      <c r="BW47" s="50"/>
+      <c r="BX47" s="50"/>
+      <c r="BY47" s="65"/>
+      <c r="BZ47" s="63"/>
+      <c r="CA47" s="50"/>
+      <c r="CB47" s="50"/>
+      <c r="CC47" s="50"/>
+      <c r="CD47" s="50"/>
+      <c r="CE47" s="50"/>
+      <c r="CF47" s="50"/>
+      <c r="CG47" s="65"/>
     </row>
     <row r="48" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
       <c r="E48" s="41" t="s">
         <v>34</v>
       </c>
@@ -4053,8 +4054,8 @@
     <row r="49" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="46"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="41" t="s">
         <v>31</v>
       </c>
@@ -4106,30 +4107,30 @@
       <c r="AY49" s="19"/>
       <c r="AZ49" s="19"/>
       <c r="BA49" s="20"/>
-      <c r="BB49" s="96"/>
-      <c r="BC49" s="81"/>
-      <c r="BD49" s="81"/>
-      <c r="BE49" s="81"/>
-      <c r="BF49" s="81"/>
-      <c r="BG49" s="81"/>
-      <c r="BH49" s="81"/>
-      <c r="BI49" s="98"/>
-      <c r="BJ49" s="96"/>
-      <c r="BK49" s="81"/>
-      <c r="BL49" s="81"/>
-      <c r="BM49" s="81"/>
-      <c r="BN49" s="81"/>
-      <c r="BO49" s="81"/>
-      <c r="BP49" s="81"/>
-      <c r="BQ49" s="98"/>
-      <c r="BR49" s="96"/>
-      <c r="BS49" s="81"/>
-      <c r="BT49" s="81"/>
-      <c r="BU49" s="81"/>
-      <c r="BV49" s="81"/>
-      <c r="BW49" s="81"/>
-      <c r="BX49" s="81"/>
-      <c r="BY49" s="98"/>
+      <c r="BB49" s="63"/>
+      <c r="BC49" s="50"/>
+      <c r="BD49" s="50"/>
+      <c r="BE49" s="50"/>
+      <c r="BF49" s="50"/>
+      <c r="BG49" s="50"/>
+      <c r="BH49" s="50"/>
+      <c r="BI49" s="65"/>
+      <c r="BJ49" s="63"/>
+      <c r="BK49" s="50"/>
+      <c r="BL49" s="50"/>
+      <c r="BM49" s="50"/>
+      <c r="BN49" s="50"/>
+      <c r="BO49" s="50"/>
+      <c r="BP49" s="50"/>
+      <c r="BQ49" s="65"/>
+      <c r="BR49" s="63"/>
+      <c r="BS49" s="50"/>
+      <c r="BT49" s="50"/>
+      <c r="BU49" s="50"/>
+      <c r="BV49" s="50"/>
+      <c r="BW49" s="50"/>
+      <c r="BX49" s="50"/>
+      <c r="BY49" s="65"/>
       <c r="BZ49" s="18"/>
       <c r="CA49" s="19"/>
       <c r="CB49" s="19"/>
@@ -4142,8 +4143,8 @@
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="46"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="41" t="s">
         <v>32</v>
       </c>
@@ -4229,17 +4230,17 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56">
+      <c r="A51" s="82">
         <v>9</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="93" t="s">
+      <c r="D51" s="92"/>
+      <c r="E51" s="60" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="9"/>
@@ -4264,10 +4265,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="89"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="39" t="s">
         <v>28</v>
       </c>
@@ -4283,10 +4284,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="89"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="96"/>
       <c r="E53" s="40" t="s">
         <v>33</v>
       </c>
@@ -4302,10 +4303,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="89"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="96"/>
       <c r="E54" s="39" t="s">
         <v>34</v>
       </c>
@@ -4394,8 +4395,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="44"/>
       <c r="C55" s="49"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="82" t="s">
+      <c r="D55" s="52"/>
+      <c r="E55" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="12"/>
@@ -4424,14 +4425,14 @@
       <c r="AC55" s="13"/>
       <c r="AD55" s="12"/>
       <c r="AE55" s="12"/>
-      <c r="AF55" s="81"/>
+      <c r="AF55" s="50"/>
       <c r="AG55" s="12"/>
       <c r="AH55" s="12"/>
       <c r="AI55" s="12"/>
       <c r="AJ55" s="12"/>
       <c r="AK55" s="13"/>
-      <c r="AL55" s="81"/>
-      <c r="AM55" s="81"/>
+      <c r="AL55" s="50"/>
+      <c r="AM55" s="50"/>
       <c r="AN55" s="12"/>
       <c r="AO55" s="12"/>
       <c r="AP55" s="12"/>
@@ -4483,8 +4484,8 @@
       <c r="A56" s="48"/>
       <c r="B56" s="44"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="82" t="s">
+      <c r="D56" s="53"/>
+      <c r="E56" s="51" t="s">
         <v>32</v>
       </c>
       <c r="F56" s="12"/>
@@ -4569,12 +4570,12 @@
       <c r="CG56" s="13"/>
     </row>
     <row r="57" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56">
+      <c r="A57" s="82">
         <v>10</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="61"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="25" t="s">
         <v>4</v>
       </c>
@@ -4600,10 +4601,10 @@
       <c r="CG57" s="17"/>
     </row>
     <row r="58" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
       <c r="E58" s="26" t="s">
         <v>7</v>
       </c>
@@ -4629,10 +4630,10 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="26" t="s">
         <v>8</v>
       </c>
@@ -4658,10 +4659,10 @@
       <c r="CG59" s="20"/>
     </row>
     <row r="60" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="41" t="s">
         <v>9</v>
       </c>
@@ -4747,12 +4748,12 @@
       <c r="CG60" s="20"/>
     </row>
     <row r="61" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56">
+      <c r="A61" s="82">
         <v>11</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="38" t="s">
         <v>4</v>
       </c>
@@ -4778,10 +4779,10 @@
       <c r="CG61" s="11"/>
     </row>
     <row r="62" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
       <c r="E62" s="39" t="s">
         <v>6</v>
       </c>
@@ -4797,10 +4798,10 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="40" t="s">
         <v>8</v>
       </c>
@@ -4816,10 +4817,10 @@
       <c r="CG63" s="13"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
       <c r="E64" s="39" t="s">
         <v>9</v>
       </c>
@@ -4905,12 +4906,12 @@
       <c r="CG64" s="13"/>
     </row>
     <row r="65" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56">
+      <c r="A65" s="82">
         <v>12</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="25" t="s">
         <v>4</v>
       </c>
@@ -4936,10 +4937,10 @@
       <c r="CG65" s="17"/>
     </row>
     <row r="66" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="63"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="78"/>
       <c r="E66" s="26" t="s">
         <v>6</v>
       </c>
@@ -4965,10 +4966,10 @@
       <c r="CG66" s="20"/>
     </row>
     <row r="67" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
       <c r="E67" s="26" t="s">
         <v>8</v>
       </c>
@@ -4994,10 +4995,10 @@
       <c r="CG67" s="20"/>
     </row>
     <row r="68" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
       <c r="E68" s="41" t="s">
         <v>9</v>
       </c>
@@ -5083,12 +5084,12 @@
       <c r="CG68" s="20"/>
     </row>
     <row r="69" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56">
+      <c r="A69" s="82">
         <v>13</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
       <c r="E69" s="38" t="s">
         <v>4</v>
       </c>
@@ -5114,10 +5115,10 @@
       <c r="CG69" s="11"/>
     </row>
     <row r="70" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="39" t="s">
         <v>6</v>
       </c>
@@ -5133,10 +5134,10 @@
       <c r="CG70" s="13"/>
     </row>
     <row r="71" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="40" t="s">
         <v>8</v>
       </c>
@@ -5152,10 +5153,10 @@
       <c r="CG71" s="13"/>
     </row>
     <row r="72" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="39" t="s">
         <v>9</v>
       </c>
@@ -5241,12 +5242,12 @@
       <c r="CG72" s="13"/>
     </row>
     <row r="73" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="56">
+      <c r="A73" s="82">
         <v>14</v>
       </c>
-      <c r="B73" s="61"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="69"/>
       <c r="E73" s="25" t="s">
         <v>4</v>
       </c>
@@ -5272,10 +5273,10 @@
       <c r="CG73" s="17"/>
     </row>
     <row r="74" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="26" t="s">
         <v>6</v>
       </c>
@@ -5301,10 +5302,10 @@
       <c r="CG74" s="20"/>
     </row>
     <row r="75" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="63"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="26" t="s">
         <v>8</v>
       </c>
@@ -5330,10 +5331,10 @@
       <c r="CG75" s="20"/>
     </row>
     <row r="76" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
       <c r="E76" s="41" t="s">
         <v>9</v>
       </c>
@@ -5419,12 +5420,12 @@
       <c r="CG76" s="20"/>
     </row>
     <row r="77" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="56">
+      <c r="A77" s="82">
         <v>15</v>
       </c>
-      <c r="B77" s="70"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
       <c r="E77" s="38" t="s">
         <v>4</v>
       </c>
@@ -5450,10 +5451,10 @@
       <c r="CG77" s="11"/>
     </row>
     <row r="78" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="39" t="s">
         <v>6</v>
       </c>
@@ -5469,10 +5470,10 @@
       <c r="CG78" s="13"/>
     </row>
     <row r="79" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
+      <c r="A79" s="82"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
       <c r="E79" s="40" t="s">
         <v>8</v>
       </c>
@@ -5488,10 +5489,10 @@
       <c r="CG79" s="13"/>
     </row>
     <row r="80" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="39" t="s">
         <v>9</v>
       </c>
@@ -5577,12 +5578,12 @@
       <c r="CG80" s="13"/>
     </row>
     <row r="81" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="56">
+      <c r="A81" s="82">
         <v>16</v>
       </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="69"/>
       <c r="E81" s="25" t="s">
         <v>4</v>
       </c>
@@ -5608,10 +5609,10 @@
       <c r="CG81" s="17"/>
     </row>
     <row r="82" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="63"/>
+      <c r="A82" s="82"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="78"/>
       <c r="E82" s="26" t="s">
         <v>6</v>
       </c>
@@ -5637,10 +5638,10 @@
       <c r="CG82" s="20"/>
     </row>
     <row r="83" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="63"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="78"/>
       <c r="E83" s="26" t="s">
         <v>8</v>
       </c>
@@ -5666,10 +5667,10 @@
       <c r="CG83" s="20"/>
     </row>
     <row r="84" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
+      <c r="A84" s="82"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
       <c r="E84" s="41" t="s">
         <v>9</v>
       </c>
@@ -5755,12 +5756,12 @@
       <c r="CG84" s="20"/>
     </row>
     <row r="85" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="71" t="s">
+      <c r="A85" s="83"/>
+      <c r="B85" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="29"/>
       <c r="F85" s="30"/>
       <c r="G85" s="31"/>
@@ -5846,10 +5847,10 @@
       <c r="CG85" s="36"/>
     </row>
     <row r="86" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
+      <c r="A86" s="83"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
       <c r="E86" s="32"/>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
@@ -5934,15 +5935,47 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C69:D72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="C73:D76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:D80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:D84"/>
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="C61:D64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:D68"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:D60"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:D24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A81:A84"/>
@@ -5956,47 +5989,15 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:D24"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="C61:D64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:D68"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:D60"/>
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="C69:D72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:D84"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
+++ b/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +422,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -540,6 +547,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -549,13 +565,73 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,75 +646,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -953,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO76" sqref="BO76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1011,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
@@ -1008,109 +1022,109 @@
       <c r="E1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="85">
+      <c r="F1" s="66">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="85">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="66">
         <v>6.02</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="85">
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="66">
         <v>7.02</v>
       </c>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="85">
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="66">
         <v>8.02</v>
       </c>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="85">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66">
         <v>9.02</v>
       </c>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="85" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="85">
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="66">
         <v>19.02</v>
       </c>
-      <c r="BC1" s="86"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="86"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="85">
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="66">
         <v>20.02</v>
       </c>
-      <c r="BK1" s="86"/>
-      <c r="BL1" s="86"/>
-      <c r="BM1" s="86"/>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="86"/>
-      <c r="BP1" s="86"/>
-      <c r="BQ1" s="87"/>
-      <c r="BR1" s="85">
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="68"/>
+      <c r="BR1" s="66">
         <v>21.02</v>
       </c>
-      <c r="BS1" s="86"/>
-      <c r="BT1" s="86"/>
-      <c r="BU1" s="86"/>
-      <c r="BV1" s="86"/>
-      <c r="BW1" s="86"/>
-      <c r="BX1" s="86"/>
-      <c r="BY1" s="87"/>
-      <c r="BZ1" s="85">
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="66">
         <v>22.02</v>
       </c>
-      <c r="CA1" s="86"/>
-      <c r="CB1" s="86"/>
-      <c r="CC1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
-      <c r="CG1" s="87"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="68"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1363,21 +1377,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82">
+      <c r="A3" s="72">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
       <c r="M3" s="11"/>
       <c r="N3" s="61"/>
       <c r="O3" s="62"/>
@@ -1401,10 +1415,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
@@ -1420,10 +1434,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="40" t="s">
         <v>33</v>
       </c>
@@ -1444,10 +1458,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="39" t="s">
         <v>34</v>
       </c>
@@ -1711,16 +1725,16 @@
       <c r="CG8" s="13"/>
     </row>
     <row r="9" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="72">
         <v>2</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="89"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="25" t="s">
         <v>27</v>
       </c>
@@ -1748,10 +1762,10 @@
       <c r="CG9" s="17"/>
     </row>
     <row r="10" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="41" t="s">
         <v>28</v>
       </c>
@@ -1777,10 +1791,10 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="26" t="s">
         <v>33</v>
       </c>
@@ -1808,10 +1822,10 @@
       <c r="CG11" s="20"/>
     </row>
     <row r="12" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="41" t="s">
         <v>34</v>
       </c>
@@ -2075,16 +2089,16 @@
       <c r="CG14" s="20"/>
     </row>
     <row r="15" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+      <c r="A15" s="72">
         <v>3</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="60" t="s">
         <v>27</v>
       </c>
@@ -2114,10 +2128,10 @@
       <c r="CG15" s="11"/>
     </row>
     <row r="16" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="96"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="39" t="s">
         <v>28</v>
       </c>
@@ -2126,6 +2140,7 @@
       <c r="AC16" s="13"/>
       <c r="AK16" s="13"/>
       <c r="AS16" s="13"/>
+      <c r="AT16" s="105"/>
       <c r="BA16" s="13"/>
       <c r="BI16" s="13"/>
       <c r="BQ16" s="13"/>
@@ -2133,10 +2148,10 @@
       <c r="CG16" s="13"/>
     </row>
     <row r="17" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="96"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
@@ -2156,10 +2171,10 @@
       <c r="CG17" s="13"/>
     </row>
     <row r="18" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="96"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="39" t="s">
         <v>34</v>
       </c>
@@ -2423,16 +2438,16 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82">
+      <c r="A21" s="72">
         <v>4</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="25" t="s">
         <v>27</v>
       </c>
@@ -2464,10 +2479,10 @@
       <c r="CG21" s="17"/>
     </row>
     <row r="22" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="41" t="s">
         <v>29</v>
       </c>
@@ -2481,8 +2496,14 @@
       <c r="AK22" s="20"/>
       <c r="AL22" s="18"/>
       <c r="AS22" s="20"/>
-      <c r="AT22" s="18"/>
-      <c r="BA22" s="20"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="101"/>
+      <c r="AV22" s="101"/>
+      <c r="AW22" s="101"/>
+      <c r="AX22" s="101"/>
+      <c r="AY22" s="101"/>
+      <c r="AZ22" s="101"/>
+      <c r="BA22" s="102"/>
       <c r="BB22" s="18"/>
       <c r="BI22" s="20"/>
       <c r="BJ22" s="18"/>
@@ -2493,10 +2514,10 @@
       <c r="CG22" s="20"/>
     </row>
     <row r="23" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="26" t="s">
         <v>33</v>
       </c>
@@ -2534,10 +2555,10 @@
       <c r="CG23" s="20"/>
     </row>
     <row r="24" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="41" t="s">
         <v>34</v>
       </c>
@@ -2801,16 +2822,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82">
+      <c r="A27" s="72">
         <v>5</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="97"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="38" t="s">
         <v>27</v>
       </c>
@@ -2825,7 +2846,9 @@
       <c r="AL27" s="9"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="9"/>
-      <c r="BA27" s="11"/>
+      <c r="AY27" s="103"/>
+      <c r="AZ27" s="103"/>
+      <c r="BA27" s="104"/>
       <c r="BB27" s="9"/>
       <c r="BI27" s="11"/>
       <c r="BJ27" s="9"/>
@@ -2836,10 +2859,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="96"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="39" t="s">
         <v>28</v>
       </c>
@@ -2849,16 +2872,19 @@
       <c r="AK28" s="13"/>
       <c r="AS28" s="13"/>
       <c r="BA28" s="13"/>
+      <c r="BB28" s="99"/>
+      <c r="BC28" s="99"/>
+      <c r="BD28" s="99"/>
       <c r="BI28" s="13"/>
       <c r="BQ28" s="13"/>
       <c r="BY28" s="13"/>
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="96"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="40" t="s">
         <v>33</v>
       </c>
@@ -2877,10 +2903,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="96"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="39" t="s">
         <v>34</v>
       </c>
@@ -3144,16 +3170,16 @@
       <c r="CG32" s="13"/>
     </row>
     <row r="33" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82">
+      <c r="A33" s="72">
         <v>6</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="25" t="s">
         <v>27</v>
       </c>
@@ -3179,10 +3205,10 @@
       <c r="CG33" s="17"/>
     </row>
     <row r="34" spans="1:85" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
@@ -3208,10 +3234,10 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="26" t="s">
         <v>33</v>
       </c>
@@ -3237,10 +3263,10 @@
       <c r="CG35" s="20"/>
     </row>
     <row r="36" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="41" t="s">
         <v>34</v>
       </c>
@@ -3504,16 +3530,16 @@
       <c r="CG38" s="20"/>
     </row>
     <row r="39" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82">
+      <c r="A39" s="72">
         <v>7</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="92"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="60" t="s">
         <v>27</v>
       </c>
@@ -3539,10 +3565,10 @@
       <c r="CG39" s="11"/>
     </row>
     <row r="40" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="96"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="39" t="s">
         <v>30</v>
       </c>
@@ -3558,10 +3584,10 @@
       <c r="CG40" s="13"/>
     </row>
     <row r="41" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="96"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="40" t="s">
         <v>33</v>
       </c>
@@ -3579,10 +3605,10 @@
       <c r="CG41" s="13"/>
     </row>
     <row r="42" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="96"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="82"/>
       <c r="E42" s="39" t="s">
         <v>34</v>
       </c>
@@ -3846,16 +3872,16 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="82">
+      <c r="A45" s="72">
         <v>8</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="89"/>
+      <c r="D45" s="84"/>
       <c r="E45" s="25" t="s">
         <v>27</v>
       </c>
@@ -3881,10 +3907,10 @@
       <c r="CG45" s="17"/>
     </row>
     <row r="46" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="91"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="41" t="s">
         <v>29</v>
       </c>
@@ -3910,10 +3936,10 @@
       <c r="CG46" s="20"/>
     </row>
     <row r="47" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="91"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="26" t="s">
         <v>33</v>
       </c>
@@ -3963,10 +3989,10 @@
       <c r="CG47" s="65"/>
     </row>
     <row r="48" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="41" t="s">
         <v>34</v>
       </c>
@@ -4230,16 +4256,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="82">
+      <c r="A51" s="72">
         <v>9</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="92"/>
+      <c r="D51" s="80"/>
       <c r="E51" s="60" t="s">
         <v>27</v>
       </c>
@@ -4265,10 +4291,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="96"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="39" t="s">
         <v>28</v>
       </c>
@@ -4284,10 +4310,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="96"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="40" t="s">
         <v>33</v>
       </c>
@@ -4303,10 +4329,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="96"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="39" t="s">
         <v>34</v>
       </c>
@@ -4570,12 +4596,12 @@
       <c r="CG56" s="13"/>
     </row>
     <row r="57" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82">
+      <c r="A57" s="72">
         <v>10</v>
       </c>
-      <c r="B57" s="98"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="76"/>
-      <c r="D57" s="69"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="25" t="s">
         <v>4</v>
       </c>
@@ -4601,10 +4627,10 @@
       <c r="CG57" s="17"/>
     </row>
     <row r="58" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
+      <c r="A58" s="72"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="26" t="s">
         <v>7</v>
       </c>
@@ -4630,10 +4656,10 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
       <c r="E59" s="26" t="s">
         <v>8</v>
       </c>
@@ -4659,10 +4685,10 @@
       <c r="CG59" s="20"/>
     </row>
     <row r="60" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
       <c r="E60" s="41" t="s">
         <v>9</v>
       </c>
@@ -4748,12 +4774,12 @@
       <c r="CG60" s="20"/>
     </row>
     <row r="61" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="82">
+      <c r="A61" s="72">
         <v>11</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
       <c r="E61" s="38" t="s">
         <v>4</v>
       </c>
@@ -4779,10 +4805,10 @@
       <c r="CG61" s="11"/>
     </row>
     <row r="62" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="82"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="39" t="s">
         <v>6</v>
       </c>
@@ -4798,10 +4824,10 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="82"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="40" t="s">
         <v>8</v>
       </c>
@@ -4817,10 +4843,10 @@
       <c r="CG63" s="13"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
       <c r="E64" s="39" t="s">
         <v>9</v>
       </c>
@@ -4906,12 +4932,12 @@
       <c r="CG64" s="13"/>
     </row>
     <row r="65" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="82">
+      <c r="A65" s="72">
         <v>12</v>
       </c>
-      <c r="B65" s="98"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="76"/>
-      <c r="D65" s="69"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="25" t="s">
         <v>4</v>
       </c>
@@ -4937,10 +4963,10 @@
       <c r="CG65" s="17"/>
     </row>
     <row r="66" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="82"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="26" t="s">
         <v>6</v>
       </c>
@@ -4966,10 +4992,10 @@
       <c r="CG66" s="20"/>
     </row>
     <row r="67" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="78"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="26" t="s">
         <v>8</v>
       </c>
@@ -4995,10 +5021,10 @@
       <c r="CG67" s="20"/>
     </row>
     <row r="68" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="82"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
       <c r="E68" s="41" t="s">
         <v>9</v>
       </c>
@@ -5084,12 +5110,12 @@
       <c r="CG68" s="20"/>
     </row>
     <row r="69" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="82">
+      <c r="A69" s="72">
         <v>13</v>
       </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="38" t="s">
         <v>4</v>
       </c>
@@ -5115,10 +5141,10 @@
       <c r="CG69" s="11"/>
     </row>
     <row r="70" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="39" t="s">
         <v>6</v>
       </c>
@@ -5134,10 +5160,10 @@
       <c r="CG70" s="13"/>
     </row>
     <row r="71" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="80"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="40" t="s">
         <v>8</v>
       </c>
@@ -5153,10 +5179,10 @@
       <c r="CG71" s="13"/>
     </row>
     <row r="72" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="82"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
       <c r="E72" s="39" t="s">
         <v>9</v>
       </c>
@@ -5242,12 +5268,12 @@
       <c r="CG72" s="13"/>
     </row>
     <row r="73" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="82">
+      <c r="A73" s="72">
         <v>14</v>
       </c>
-      <c r="B73" s="69"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="76"/>
-      <c r="D73" s="69"/>
+      <c r="D73" s="77"/>
       <c r="E73" s="25" t="s">
         <v>4</v>
       </c>
@@ -5273,10 +5299,10 @@
       <c r="CG73" s="17"/>
     </row>
     <row r="74" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
       <c r="E74" s="26" t="s">
         <v>6</v>
       </c>
@@ -5302,10 +5328,10 @@
       <c r="CG74" s="20"/>
     </row>
     <row r="75" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="82"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="78"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
       <c r="E75" s="26" t="s">
         <v>8</v>
       </c>
@@ -5331,10 +5357,10 @@
       <c r="CG75" s="20"/>
     </row>
     <row r="76" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="82"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="79"/>
       <c r="E76" s="41" t="s">
         <v>9</v>
       </c>
@@ -5420,12 +5446,12 @@
       <c r="CG76" s="20"/>
     </row>
     <row r="77" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="82">
+      <c r="A77" s="72">
         <v>15</v>
       </c>
-      <c r="B77" s="79"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="38" t="s">
         <v>4</v>
       </c>
@@ -5451,10 +5477,10 @@
       <c r="CG77" s="11"/>
     </row>
     <row r="78" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
       <c r="E78" s="39" t="s">
         <v>6</v>
       </c>
@@ -5470,10 +5496,10 @@
       <c r="CG78" s="13"/>
     </row>
     <row r="79" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="82"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="40" t="s">
         <v>8</v>
       </c>
@@ -5489,10 +5515,10 @@
       <c r="CG79" s="13"/>
     </row>
     <row r="80" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="39" t="s">
         <v>9</v>
       </c>
@@ -5578,12 +5604,12 @@
       <c r="CG80" s="13"/>
     </row>
     <row r="81" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="82">
+      <c r="A81" s="72">
         <v>16</v>
       </c>
-      <c r="B81" s="69"/>
+      <c r="B81" s="77"/>
       <c r="C81" s="76"/>
-      <c r="D81" s="69"/>
+      <c r="D81" s="77"/>
       <c r="E81" s="25" t="s">
         <v>4</v>
       </c>
@@ -5609,10 +5635,10 @@
       <c r="CG81" s="17"/>
     </row>
     <row r="82" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="82"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="78"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="79"/>
       <c r="E82" s="26" t="s">
         <v>6</v>
       </c>
@@ -5638,10 +5664,10 @@
       <c r="CG82" s="20"/>
     </row>
     <row r="83" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="82"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="78"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="79"/>
       <c r="E83" s="26" t="s">
         <v>8</v>
       </c>
@@ -5667,10 +5693,10 @@
       <c r="CG83" s="20"/>
     </row>
     <row r="84" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
       <c r="E84" s="41" t="s">
         <v>9</v>
       </c>
@@ -5756,12 +5782,12 @@
       <c r="CG84" s="20"/>
     </row>
     <row r="85" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
-      <c r="B85" s="72" t="s">
+      <c r="A85" s="92"/>
+      <c r="B85" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
       <c r="E85" s="29"/>
       <c r="F85" s="30"/>
       <c r="G85" s="31"/>
@@ -5847,10 +5873,10 @@
       <c r="CG85" s="36"/>
     </row>
     <row r="86" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="75"/>
+      <c r="A86" s="92"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="32"/>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
@@ -5935,47 +5961,15 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
-    <mergeCell ref="C61:D64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:D68"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:D60"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:D24"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C69:D72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:D84"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A81:A84"/>
@@ -5989,15 +5983,47 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C69:D72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="C73:D76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:D80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:D84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:D24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="C61:D64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:D68"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:D60"/>
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
+++ b/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -422,7 +421,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -547,15 +546,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -565,73 +562,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,13 +583,77 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -965,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG86"/>
+  <dimension ref="A1:CO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO76" sqref="BO76"/>
+      <selection activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,10 +1009,13 @@
     <col min="78" max="78" width="3.140625" style="5" customWidth="1"/>
     <col min="79" max="84" width="3.140625" style="6" customWidth="1"/>
     <col min="85" max="85" width="3.140625" style="8" customWidth="1"/>
+    <col min="86" max="86" width="3.140625" style="5" customWidth="1"/>
+    <col min="87" max="92" width="3.140625" style="6" customWidth="1"/>
+    <col min="93" max="93" width="3.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:93" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
@@ -1022,109 +1026,119 @@
       <c r="E1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="66">
+      <c r="F1" s="92">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="66">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="92">
         <v>6.02</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="66">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="92">
         <v>7.02</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="66">
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="92">
         <v>8.02</v>
       </c>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="66">
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="94"/>
+      <c r="AL1" s="92">
         <v>9.02</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="66" t="s">
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="94"/>
+      <c r="AT1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="66">
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="94"/>
+      <c r="BB1" s="92">
         <v>19.02</v>
       </c>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="66">
+      <c r="BC1" s="93"/>
+      <c r="BD1" s="93"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="94"/>
+      <c r="BJ1" s="92">
         <v>20.02</v>
       </c>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="68"/>
-      <c r="BR1" s="66">
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="93"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="93"/>
+      <c r="BP1" s="93"/>
+      <c r="BQ1" s="94"/>
+      <c r="BR1" s="92">
         <v>21.02</v>
       </c>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="66">
+      <c r="BS1" s="93"/>
+      <c r="BT1" s="93"/>
+      <c r="BU1" s="93"/>
+      <c r="BV1" s="93"/>
+      <c r="BW1" s="93"/>
+      <c r="BX1" s="93"/>
+      <c r="BY1" s="94"/>
+      <c r="BZ1" s="92">
         <v>22.02</v>
       </c>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="68"/>
-    </row>
-    <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
+      <c r="CA1" s="93"/>
+      <c r="CB1" s="93"/>
+      <c r="CC1" s="93"/>
+      <c r="CD1" s="93"/>
+      <c r="CE1" s="93"/>
+      <c r="CF1" s="93"/>
+      <c r="CG1" s="94"/>
+      <c r="CH1" s="92">
+        <v>26.02</v>
+      </c>
+      <c r="CI1" s="93"/>
+      <c r="CJ1" s="93"/>
+      <c r="CK1" s="93"/>
+      <c r="CL1" s="93"/>
+      <c r="CM1" s="93"/>
+      <c r="CN1" s="93"/>
+      <c r="CO1" s="94"/>
+    </row>
+    <row r="2" spans="1:93" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
       <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1375,23 +1389,47 @@
       <c r="CG2" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+      <c r="CH2" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="CI2" s="4">
+        <v>2</v>
+      </c>
+      <c r="CJ2" s="4">
+        <v>3</v>
+      </c>
+      <c r="CK2" s="4">
+        <v>4</v>
+      </c>
+      <c r="CL2" s="4">
+        <v>5</v>
+      </c>
+      <c r="CM2" s="4">
+        <v>6</v>
+      </c>
+      <c r="CN2" s="4">
+        <v>7</v>
+      </c>
+      <c r="CO2" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89">
+        <v>1</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="M3" s="11"/>
       <c r="N3" s="61"/>
       <c r="O3" s="62"/>
@@ -1413,12 +1451,14 @@
       <c r="BY3" s="11"/>
       <c r="BZ3" s="9"/>
       <c r="CG3" s="11"/>
-    </row>
-    <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="CH3" s="9"/>
+      <c r="CO3" s="11"/>
+    </row>
+    <row r="4" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
       <c r="B4" s="87"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
@@ -1432,12 +1472,13 @@
       <c r="BQ4" s="13"/>
       <c r="BY4" s="13"/>
       <c r="CG4" s="13"/>
-    </row>
-    <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="CO4" s="13"/>
+    </row>
+    <row r="5" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
       <c r="B5" s="87"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="40" t="s">
         <v>33</v>
       </c>
@@ -1456,12 +1497,13 @@
       <c r="BQ5" s="13"/>
       <c r="BY5" s="13"/>
       <c r="CG5" s="13"/>
-    </row>
-    <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="CO5" s="13"/>
+    </row>
+    <row r="6" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
       <c r="B6" s="87"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="39" t="s">
         <v>34</v>
       </c>
@@ -1545,8 +1587,16 @@
       <c r="CE6" s="12"/>
       <c r="CF6" s="12"/>
       <c r="CG6" s="13"/>
-    </row>
-    <row r="7" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12"/>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+      <c r="CO6" s="13"/>
+    </row>
+    <row r="7" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="47"/>
       <c r="C7" s="49"/>
@@ -1634,8 +1684,16 @@
       <c r="CE7" s="12"/>
       <c r="CF7" s="12"/>
       <c r="CG7" s="13"/>
-    </row>
-    <row r="8" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH7" s="12"/>
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12"/>
+      <c r="CK7" s="12"/>
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="12"/>
+      <c r="CN7" s="12"/>
+      <c r="CO7" s="13"/>
+    </row>
+    <row r="8" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
       <c r="C8" s="49"/>
@@ -1723,18 +1781,26 @@
       <c r="CE8" s="12"/>
       <c r="CF8" s="12"/>
       <c r="CG8" s="13"/>
-    </row>
-    <row r="9" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="CH8" s="12"/>
+      <c r="CI8" s="12"/>
+      <c r="CJ8" s="12"/>
+      <c r="CK8" s="12"/>
+      <c r="CL8" s="12"/>
+      <c r="CM8" s="12"/>
+      <c r="CN8" s="12"/>
+      <c r="CO8" s="13"/>
+    </row>
+    <row r="9" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
         <v>2</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="25" t="s">
         <v>27</v>
       </c>
@@ -1760,12 +1826,14 @@
       <c r="BY9" s="17"/>
       <c r="BZ9" s="15"/>
       <c r="CG9" s="17"/>
-    </row>
-    <row r="10" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
+      <c r="CH9" s="15"/>
+      <c r="CO9" s="17"/>
+    </row>
+    <row r="10" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="41" t="s">
         <v>28</v>
       </c>
@@ -1789,12 +1857,14 @@
       <c r="BY10" s="20"/>
       <c r="BZ10" s="18"/>
       <c r="CG10" s="20"/>
-    </row>
-    <row r="11" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="CH10" s="18"/>
+      <c r="CO10" s="20"/>
+    </row>
+    <row r="11" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="26" t="s">
         <v>33</v>
       </c>
@@ -1820,12 +1890,14 @@
       <c r="BY11" s="20"/>
       <c r="BZ11" s="18"/>
       <c r="CG11" s="20"/>
-    </row>
-    <row r="12" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
+      <c r="CH11" s="18"/>
+      <c r="CO11" s="20"/>
+    </row>
+    <row r="12" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="41" t="s">
         <v>34</v>
       </c>
@@ -1909,8 +1981,16 @@
       <c r="CE12" s="19"/>
       <c r="CF12" s="19"/>
       <c r="CG12" s="20"/>
-    </row>
-    <row r="13" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH12" s="18"/>
+      <c r="CI12" s="19"/>
+      <c r="CJ12" s="19"/>
+      <c r="CK12" s="19"/>
+      <c r="CL12" s="19"/>
+      <c r="CM12" s="19"/>
+      <c r="CN12" s="19"/>
+      <c r="CO12" s="20"/>
+    </row>
+    <row r="13" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="45"/>
       <c r="C13" s="55"/>
@@ -1998,8 +2078,16 @@
       <c r="CE13" s="19"/>
       <c r="CF13" s="19"/>
       <c r="CG13" s="20"/>
-    </row>
-    <row r="14" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH13" s="18"/>
+      <c r="CI13" s="19"/>
+      <c r="CJ13" s="19"/>
+      <c r="CK13" s="19"/>
+      <c r="CL13" s="19"/>
+      <c r="CM13" s="19"/>
+      <c r="CN13" s="19"/>
+      <c r="CO13" s="20"/>
+    </row>
+    <row r="14" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="45"/>
       <c r="C14" s="55"/>
@@ -2087,18 +2175,26 @@
       <c r="CE14" s="19"/>
       <c r="CF14" s="19"/>
       <c r="CG14" s="20"/>
-    </row>
-    <row r="15" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
+      <c r="CH14" s="18"/>
+      <c r="CI14" s="19"/>
+      <c r="CJ14" s="19"/>
+      <c r="CK14" s="19"/>
+      <c r="CL14" s="19"/>
+      <c r="CM14" s="19"/>
+      <c r="CN14" s="19"/>
+      <c r="CO14" s="20"/>
+    </row>
+    <row r="15" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
         <v>3</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="60" t="s">
         <v>27</v>
       </c>
@@ -2126,12 +2222,14 @@
       <c r="BY15" s="11"/>
       <c r="BZ15" s="9"/>
       <c r="CG15" s="11"/>
-    </row>
-    <row r="16" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="CH15" s="9"/>
+      <c r="CO15" s="11"/>
+    </row>
+    <row r="16" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
       <c r="B16" s="87"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="39" t="s">
         <v>28</v>
       </c>
@@ -2140,18 +2238,19 @@
       <c r="AC16" s="13"/>
       <c r="AK16" s="13"/>
       <c r="AS16" s="13"/>
-      <c r="AT16" s="105"/>
+      <c r="AT16" s="72"/>
       <c r="BA16" s="13"/>
       <c r="BI16" s="13"/>
       <c r="BQ16" s="13"/>
       <c r="BY16" s="13"/>
       <c r="CG16" s="13"/>
-    </row>
-    <row r="17" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="CO16" s="13"/>
+    </row>
+    <row r="17" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
       <c r="B17" s="87"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
@@ -2169,12 +2268,13 @@
       <c r="BQ17" s="13"/>
       <c r="BY17" s="13"/>
       <c r="CG17" s="13"/>
-    </row>
-    <row r="18" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="CO17" s="13"/>
+    </row>
+    <row r="18" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="39" t="s">
         <v>34</v>
       </c>
@@ -2258,8 +2358,16 @@
       <c r="CE18" s="12"/>
       <c r="CF18" s="12"/>
       <c r="CG18" s="13"/>
-    </row>
-    <row r="19" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH18" s="12"/>
+      <c r="CI18" s="12"/>
+      <c r="CJ18" s="12"/>
+      <c r="CK18" s="12"/>
+      <c r="CL18" s="12"/>
+      <c r="CM18" s="12"/>
+      <c r="CN18" s="12"/>
+      <c r="CO18" s="13"/>
+    </row>
+    <row r="19" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="47"/>
       <c r="C19" s="49"/>
@@ -2347,8 +2455,16 @@
       <c r="CE19" s="12"/>
       <c r="CF19" s="12"/>
       <c r="CG19" s="13"/>
-    </row>
-    <row r="20" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH19" s="12"/>
+      <c r="CI19" s="12"/>
+      <c r="CJ19" s="12"/>
+      <c r="CK19" s="12"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
+      <c r="CN19" s="12"/>
+      <c r="CO19" s="13"/>
+    </row>
+    <row r="20" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="47"/>
       <c r="C20" s="49"/>
@@ -2436,18 +2552,26 @@
       <c r="CE20" s="12"/>
       <c r="CF20" s="12"/>
       <c r="CG20" s="13"/>
-    </row>
-    <row r="21" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+      <c r="CJ20" s="12"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="13"/>
+    </row>
+    <row r="21" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
         <v>4</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="84"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="25" t="s">
         <v>27</v>
       </c>
@@ -2477,12 +2601,14 @@
       <c r="BY21" s="17"/>
       <c r="BZ21" s="15"/>
       <c r="CG21" s="17"/>
-    </row>
-    <row r="22" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="CH21" s="15"/>
+      <c r="CO21" s="17"/>
+    </row>
+    <row r="22" spans="1:93" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="41" t="s">
         <v>29</v>
       </c>
@@ -2496,14 +2622,14 @@
       <c r="AK22" s="20"/>
       <c r="AL22" s="18"/>
       <c r="AS22" s="20"/>
-      <c r="AT22" s="100"/>
-      <c r="AU22" s="101"/>
-      <c r="AV22" s="101"/>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="101"/>
-      <c r="AY22" s="101"/>
-      <c r="AZ22" s="101"/>
-      <c r="BA22" s="102"/>
+      <c r="AT22" s="67"/>
+      <c r="AU22" s="68"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="69"/>
       <c r="BB22" s="18"/>
       <c r="BI22" s="20"/>
       <c r="BJ22" s="18"/>
@@ -2512,12 +2638,14 @@
       <c r="BY22" s="20"/>
       <c r="BZ22" s="18"/>
       <c r="CG22" s="20"/>
-    </row>
-    <row r="23" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
+      <c r="CH22" s="18"/>
+      <c r="CO22" s="20"/>
+    </row>
+    <row r="23" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="26" t="s">
         <v>33</v>
       </c>
@@ -2553,12 +2681,14 @@
       <c r="BY23" s="20"/>
       <c r="BZ23" s="18"/>
       <c r="CG23" s="20"/>
-    </row>
-    <row r="24" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+      <c r="CH23" s="18"/>
+      <c r="CO23" s="20"/>
+    </row>
+    <row r="24" spans="1:93" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="41" t="s">
         <v>34</v>
       </c>
@@ -2610,23 +2740,23 @@
       <c r="AY24" s="19"/>
       <c r="AZ24" s="19"/>
       <c r="BA24" s="20"/>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-      <c r="BE24" s="19"/>
-      <c r="BF24" s="19"/>
-      <c r="BG24" s="19"/>
-      <c r="BH24" s="19"/>
-      <c r="BI24" s="20"/>
-      <c r="BJ24" s="18"/>
-      <c r="BK24" s="19"/>
-      <c r="BL24" s="19"/>
-      <c r="BM24" s="19"/>
-      <c r="BN24" s="19"/>
-      <c r="BO24" s="19"/>
-      <c r="BP24" s="19"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="18"/>
+      <c r="BB24" s="106"/>
+      <c r="BC24" s="72"/>
+      <c r="BD24" s="72"/>
+      <c r="BE24" s="72"/>
+      <c r="BF24" s="72"/>
+      <c r="BG24" s="72"/>
+      <c r="BH24" s="72"/>
+      <c r="BI24" s="107"/>
+      <c r="BJ24" s="106"/>
+      <c r="BK24" s="72"/>
+      <c r="BL24" s="72"/>
+      <c r="BM24" s="72"/>
+      <c r="BN24" s="72"/>
+      <c r="BO24" s="72"/>
+      <c r="BP24" s="72"/>
+      <c r="BQ24" s="107"/>
+      <c r="BR24" s="106"/>
       <c r="BS24" s="19"/>
       <c r="BT24" s="19"/>
       <c r="BU24" s="19"/>
@@ -2642,8 +2772,16 @@
       <c r="CE24" s="19"/>
       <c r="CF24" s="19"/>
       <c r="CG24" s="20"/>
-    </row>
-    <row r="25" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CH24" s="18"/>
+      <c r="CI24" s="19"/>
+      <c r="CJ24" s="19"/>
+      <c r="CK24" s="19"/>
+      <c r="CL24" s="19"/>
+      <c r="CM24" s="19"/>
+      <c r="CN24" s="19"/>
+      <c r="CO24" s="20"/>
+    </row>
+    <row r="25" spans="1:93" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="45"/>
       <c r="C25" s="55"/>
@@ -2731,8 +2869,16 @@
       <c r="CE25" s="19"/>
       <c r="CF25" s="19"/>
       <c r="CG25" s="20"/>
-    </row>
-    <row r="26" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CH25" s="18"/>
+      <c r="CI25" s="19"/>
+      <c r="CJ25" s="19"/>
+      <c r="CK25" s="19"/>
+      <c r="CL25" s="19"/>
+      <c r="CM25" s="19"/>
+      <c r="CN25" s="19"/>
+      <c r="CO25" s="20"/>
+    </row>
+    <row r="26" spans="1:93" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="45"/>
       <c r="C26" s="55"/>
@@ -2820,18 +2966,26 @@
       <c r="CE26" s="19"/>
       <c r="CF26" s="19"/>
       <c r="CG26" s="20"/>
-    </row>
-    <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+      <c r="CH26" s="18"/>
+      <c r="CI26" s="19"/>
+      <c r="CJ26" s="19"/>
+      <c r="CK26" s="19"/>
+      <c r="CL26" s="19"/>
+      <c r="CM26" s="19"/>
+      <c r="CN26" s="19"/>
+      <c r="CO26" s="20"/>
+    </row>
+    <row r="27" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="89">
         <v>5</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="38" t="s">
         <v>27</v>
       </c>
@@ -2846,9 +3000,9 @@
       <c r="AL27" s="9"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="9"/>
-      <c r="AY27" s="103"/>
-      <c r="AZ27" s="103"/>
-      <c r="BA27" s="104"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="71"/>
       <c r="BB27" s="9"/>
       <c r="BI27" s="11"/>
       <c r="BJ27" s="9"/>
@@ -2857,12 +3011,14 @@
       <c r="BY27" s="11"/>
       <c r="BZ27" s="9"/>
       <c r="CG27" s="11"/>
-    </row>
-    <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="CH27" s="9"/>
+      <c r="CO27" s="11"/>
+    </row>
+    <row r="28" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
       <c r="B28" s="87"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="39" t="s">
         <v>28</v>
       </c>
@@ -2872,19 +3028,20 @@
       <c r="AK28" s="13"/>
       <c r="AS28" s="13"/>
       <c r="BA28" s="13"/>
-      <c r="BB28" s="99"/>
-      <c r="BC28" s="99"/>
-      <c r="BD28" s="99"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="66"/>
+      <c r="BD28" s="66"/>
       <c r="BI28" s="13"/>
       <c r="BQ28" s="13"/>
       <c r="BY28" s="13"/>
       <c r="CG28" s="13"/>
-    </row>
-    <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="CO28" s="13"/>
+    </row>
+    <row r="29" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="89"/>
       <c r="B29" s="87"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="40" t="s">
         <v>33</v>
       </c>
@@ -2901,12 +3058,13 @@
       <c r="BQ29" s="13"/>
       <c r="BY29" s="13"/>
       <c r="CG29" s="13"/>
-    </row>
-    <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
+      <c r="CO29" s="13"/>
+    </row>
+    <row r="30" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="89"/>
       <c r="B30" s="87"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="39" t="s">
         <v>34</v>
       </c>
@@ -2976,22 +3134,30 @@
       <c r="BQ30" s="13"/>
       <c r="BR30" s="12"/>
       <c r="BS30" s="12"/>
-      <c r="BT30" s="12"/>
-      <c r="BU30" s="12"/>
-      <c r="BV30" s="12"/>
-      <c r="BW30" s="12"/>
-      <c r="BX30" s="12"/>
-      <c r="BY30" s="13"/>
-      <c r="BZ30" s="12"/>
-      <c r="CA30" s="12"/>
-      <c r="CB30" s="12"/>
+      <c r="BT30" s="72"/>
+      <c r="BU30" s="72"/>
+      <c r="BV30" s="72"/>
+      <c r="BW30" s="72"/>
+      <c r="BX30" s="72"/>
+      <c r="BY30" s="107"/>
+      <c r="BZ30" s="72"/>
+      <c r="CA30" s="72"/>
+      <c r="CB30" s="72"/>
       <c r="CC30" s="12"/>
       <c r="CD30" s="12"/>
       <c r="CE30" s="12"/>
       <c r="CF30" s="12"/>
       <c r="CG30" s="13"/>
-    </row>
-    <row r="31" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH30" s="12"/>
+      <c r="CI30" s="12"/>
+      <c r="CJ30" s="12"/>
+      <c r="CK30" s="12"/>
+      <c r="CL30" s="12"/>
+      <c r="CM30" s="12"/>
+      <c r="CN30" s="12"/>
+      <c r="CO30" s="13"/>
+    </row>
+    <row r="31" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="47"/>
       <c r="C31" s="49"/>
@@ -3079,8 +3245,16 @@
       <c r="CE31" s="12"/>
       <c r="CF31" s="12"/>
       <c r="CG31" s="13"/>
-    </row>
-    <row r="32" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH31" s="12"/>
+      <c r="CI31" s="12"/>
+      <c r="CJ31" s="12"/>
+      <c r="CK31" s="12"/>
+      <c r="CL31" s="12"/>
+      <c r="CM31" s="12"/>
+      <c r="CN31" s="12"/>
+      <c r="CO31" s="13"/>
+    </row>
+    <row r="32" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="47"/>
       <c r="C32" s="49"/>
@@ -3168,18 +3342,26 @@
       <c r="CE32" s="12"/>
       <c r="CF32" s="12"/>
       <c r="CG32" s="13"/>
-    </row>
-    <row r="33" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72">
+      <c r="CH32" s="12"/>
+      <c r="CI32" s="12"/>
+      <c r="CJ32" s="12"/>
+      <c r="CK32" s="12"/>
+      <c r="CL32" s="12"/>
+      <c r="CM32" s="12"/>
+      <c r="CN32" s="12"/>
+      <c r="CO32" s="13"/>
+    </row>
+    <row r="33" spans="1:93" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="89">
         <v>6</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="25" t="s">
         <v>27</v>
       </c>
@@ -3203,12 +3385,14 @@
       <c r="BY33" s="17"/>
       <c r="BZ33" s="15"/>
       <c r="CG33" s="17"/>
-    </row>
-    <row r="34" spans="1:85" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="CH33" s="15"/>
+      <c r="CO33" s="17"/>
+    </row>
+    <row r="34" spans="1:93" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="89"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
@@ -3232,12 +3416,14 @@
       <c r="BY34" s="20"/>
       <c r="BZ34" s="18"/>
       <c r="CG34" s="20"/>
-    </row>
-    <row r="35" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="CH34" s="18"/>
+      <c r="CO34" s="20"/>
+    </row>
+    <row r="35" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="26" t="s">
         <v>33</v>
       </c>
@@ -3261,12 +3447,14 @@
       <c r="BY35" s="20"/>
       <c r="BZ35" s="18"/>
       <c r="CG35" s="20"/>
-    </row>
-    <row r="36" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
+      <c r="CH35" s="18"/>
+      <c r="CO35" s="20"/>
+    </row>
+    <row r="36" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="89"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="41" t="s">
         <v>34</v>
       </c>
@@ -3349,9 +3537,17 @@
       <c r="CD36" s="19"/>
       <c r="CE36" s="19"/>
       <c r="CF36" s="19"/>
-      <c r="CG36" s="20"/>
-    </row>
-    <row r="37" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CG36" s="107"/>
+      <c r="CH36" s="106"/>
+      <c r="CI36" s="72"/>
+      <c r="CJ36" s="19"/>
+      <c r="CK36" s="19"/>
+      <c r="CL36" s="19"/>
+      <c r="CM36" s="19"/>
+      <c r="CN36" s="19"/>
+      <c r="CO36" s="20"/>
+    </row>
+    <row r="37" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="45"/>
       <c r="C37" s="55"/>
@@ -3439,8 +3635,16 @@
       <c r="CE37" s="19"/>
       <c r="CF37" s="19"/>
       <c r="CG37" s="20"/>
-    </row>
-    <row r="38" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH37" s="18"/>
+      <c r="CI37" s="19"/>
+      <c r="CJ37" s="19"/>
+      <c r="CK37" s="19"/>
+      <c r="CL37" s="19"/>
+      <c r="CM37" s="19"/>
+      <c r="CN37" s="19"/>
+      <c r="CO37" s="20"/>
+    </row>
+    <row r="38" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="45"/>
       <c r="C38" s="55"/>
@@ -3528,18 +3732,26 @@
       <c r="CE38" s="19"/>
       <c r="CF38" s="19"/>
       <c r="CG38" s="20"/>
-    </row>
-    <row r="39" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72">
+      <c r="CH38" s="18"/>
+      <c r="CI38" s="19"/>
+      <c r="CJ38" s="19"/>
+      <c r="CK38" s="19"/>
+      <c r="CL38" s="19"/>
+      <c r="CM38" s="19"/>
+      <c r="CN38" s="19"/>
+      <c r="CO38" s="20"/>
+    </row>
+    <row r="39" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="89">
         <v>7</v>
       </c>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="80"/>
+      <c r="D39" s="99"/>
       <c r="E39" s="60" t="s">
         <v>27</v>
       </c>
@@ -3563,12 +3775,14 @@
       <c r="BY39" s="11"/>
       <c r="BZ39" s="9"/>
       <c r="CG39" s="11"/>
-    </row>
-    <row r="40" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
+      <c r="CH39" s="9"/>
+      <c r="CO39" s="11"/>
+    </row>
+    <row r="40" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="89"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="39" t="s">
         <v>30</v>
       </c>
@@ -3582,12 +3796,13 @@
       <c r="BQ40" s="13"/>
       <c r="BY40" s="13"/>
       <c r="CG40" s="13"/>
-    </row>
-    <row r="41" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
+      <c r="CO40" s="13"/>
+    </row>
+    <row r="41" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="89"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="40" t="s">
         <v>33</v>
       </c>
@@ -3603,12 +3818,13 @@
       <c r="BQ41" s="13"/>
       <c r="BY41" s="13"/>
       <c r="CG41" s="13"/>
-    </row>
-    <row r="42" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="82"/>
+      <c r="CO41" s="13"/>
+    </row>
+    <row r="42" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="89"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="39" t="s">
         <v>34</v>
       </c>
@@ -3692,8 +3908,16 @@
       <c r="CE42" s="12"/>
       <c r="CF42" s="12"/>
       <c r="CG42" s="13"/>
-    </row>
-    <row r="43" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH42" s="12"/>
+      <c r="CI42" s="12"/>
+      <c r="CJ42" s="12"/>
+      <c r="CK42" s="12"/>
+      <c r="CL42" s="12"/>
+      <c r="CM42" s="12"/>
+      <c r="CN42" s="12"/>
+      <c r="CO42" s="13"/>
+    </row>
+    <row r="43" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="44"/>
       <c r="C43" s="49"/>
@@ -3781,8 +4005,16 @@
       <c r="CE43" s="12"/>
       <c r="CF43" s="12"/>
       <c r="CG43" s="13"/>
-    </row>
-    <row r="44" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH43" s="12"/>
+      <c r="CI43" s="12"/>
+      <c r="CJ43" s="12"/>
+      <c r="CK43" s="12"/>
+      <c r="CL43" s="12"/>
+      <c r="CM43" s="12"/>
+      <c r="CN43" s="12"/>
+      <c r="CO43" s="13"/>
+    </row>
+    <row r="44" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="44"/>
       <c r="C44" s="49"/>
@@ -3870,18 +4102,26 @@
       <c r="CE44" s="12"/>
       <c r="CF44" s="12"/>
       <c r="CG44" s="13"/>
-    </row>
-    <row r="45" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="72">
+      <c r="CH44" s="12"/>
+      <c r="CI44" s="12"/>
+      <c r="CJ44" s="12"/>
+      <c r="CK44" s="12"/>
+      <c r="CL44" s="12"/>
+      <c r="CM44" s="12"/>
+      <c r="CN44" s="12"/>
+      <c r="CO44" s="13"/>
+    </row>
+    <row r="45" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="89">
         <v>8</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="84"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="25" t="s">
         <v>27</v>
       </c>
@@ -3905,12 +4145,14 @@
       <c r="BY45" s="17"/>
       <c r="BZ45" s="15"/>
       <c r="CG45" s="17"/>
-    </row>
-    <row r="46" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
+      <c r="CH45" s="15"/>
+      <c r="CO45" s="17"/>
+    </row>
+    <row r="46" spans="1:93" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="89"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="41" t="s">
         <v>29</v>
       </c>
@@ -3934,12 +4176,14 @@
       <c r="BY46" s="20"/>
       <c r="BZ46" s="18"/>
       <c r="CG46" s="20"/>
-    </row>
-    <row r="47" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
+      <c r="CH46" s="18"/>
+      <c r="CO46" s="20"/>
+    </row>
+    <row r="47" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="89"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="26" t="s">
         <v>33</v>
       </c>
@@ -3987,12 +4231,20 @@
       <c r="CE47" s="50"/>
       <c r="CF47" s="50"/>
       <c r="CG47" s="65"/>
-    </row>
-    <row r="48" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
+      <c r="CH47" s="63"/>
+      <c r="CI47" s="50"/>
+      <c r="CJ47" s="50"/>
+      <c r="CK47" s="50"/>
+      <c r="CL47" s="50"/>
+      <c r="CM47" s="50"/>
+      <c r="CN47" s="50"/>
+      <c r="CO47" s="65"/>
+    </row>
+    <row r="48" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="89"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="41" t="s">
         <v>34</v>
       </c>
@@ -4076,8 +4328,16 @@
       <c r="CE48" s="19"/>
       <c r="CF48" s="19"/>
       <c r="CG48" s="20"/>
-    </row>
-    <row r="49" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH48" s="18"/>
+      <c r="CI48" s="19"/>
+      <c r="CJ48" s="19"/>
+      <c r="CK48" s="19"/>
+      <c r="CL48" s="19"/>
+      <c r="CM48" s="19"/>
+      <c r="CN48" s="19"/>
+      <c r="CO48" s="20"/>
+    </row>
+    <row r="49" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="46"/>
       <c r="C49" s="55"/>
@@ -4165,8 +4425,16 @@
       <c r="CE49" s="19"/>
       <c r="CF49" s="19"/>
       <c r="CG49" s="20"/>
-    </row>
-    <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH49" s="18"/>
+      <c r="CI49" s="19"/>
+      <c r="CJ49" s="19"/>
+      <c r="CK49" s="19"/>
+      <c r="CL49" s="19"/>
+      <c r="CM49" s="19"/>
+      <c r="CN49" s="19"/>
+      <c r="CO49" s="20"/>
+    </row>
+    <row r="50" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="46"/>
       <c r="C50" s="55"/>
@@ -4254,18 +4522,26 @@
       <c r="CE50" s="19"/>
       <c r="CF50" s="19"/>
       <c r="CG50" s="20"/>
-    </row>
-    <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72">
+      <c r="CH50" s="18"/>
+      <c r="CI50" s="19"/>
+      <c r="CJ50" s="19"/>
+      <c r="CK50" s="19"/>
+      <c r="CL50" s="19"/>
+      <c r="CM50" s="19"/>
+      <c r="CN50" s="19"/>
+      <c r="CO50" s="20"/>
+    </row>
+    <row r="51" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="89">
         <v>9</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="80"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="60" t="s">
         <v>27</v>
       </c>
@@ -4289,12 +4565,14 @@
       <c r="BY51" s="11"/>
       <c r="BZ51" s="9"/>
       <c r="CG51" s="11"/>
-    </row>
-    <row r="52" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
+      <c r="CH51" s="9"/>
+      <c r="CO51" s="11"/>
+    </row>
+    <row r="52" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="89"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="103"/>
       <c r="E52" s="39" t="s">
         <v>28</v>
       </c>
@@ -4308,12 +4586,13 @@
       <c r="BQ52" s="13"/>
       <c r="BY52" s="13"/>
       <c r="CG52" s="13"/>
-    </row>
-    <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="82"/>
+      <c r="CO52" s="13"/>
+    </row>
+    <row r="53" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="89"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="103"/>
       <c r="E53" s="40" t="s">
         <v>33</v>
       </c>
@@ -4327,12 +4606,13 @@
       <c r="BQ53" s="13"/>
       <c r="BY53" s="13"/>
       <c r="CG53" s="13"/>
-    </row>
-    <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
+      <c r="CO53" s="13"/>
+    </row>
+    <row r="54" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="89"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="103"/>
       <c r="E54" s="39" t="s">
         <v>34</v>
       </c>
@@ -4416,8 +4696,16 @@
       <c r="CE54" s="12"/>
       <c r="CF54" s="12"/>
       <c r="CG54" s="13"/>
-    </row>
-    <row r="55" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH54" s="12"/>
+      <c r="CI54" s="12"/>
+      <c r="CJ54" s="12"/>
+      <c r="CK54" s="12"/>
+      <c r="CL54" s="12"/>
+      <c r="CM54" s="12"/>
+      <c r="CN54" s="12"/>
+      <c r="CO54" s="13"/>
+    </row>
+    <row r="55" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="44"/>
       <c r="C55" s="49"/>
@@ -4505,8 +4793,16 @@
       <c r="CE55" s="12"/>
       <c r="CF55" s="12"/>
       <c r="CG55" s="13"/>
-    </row>
-    <row r="56" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CH55" s="12"/>
+      <c r="CI55" s="12"/>
+      <c r="CJ55" s="12"/>
+      <c r="CK55" s="12"/>
+      <c r="CL55" s="12"/>
+      <c r="CM55" s="12"/>
+      <c r="CN55" s="12"/>
+      <c r="CO55" s="13"/>
+    </row>
+    <row r="56" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="44"/>
       <c r="C56" s="49"/>
@@ -4594,14 +4890,22 @@
       <c r="CE56" s="12"/>
       <c r="CF56" s="12"/>
       <c r="CG56" s="13"/>
-    </row>
-    <row r="57" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72">
+      <c r="CH56" s="12"/>
+      <c r="CI56" s="12"/>
+      <c r="CJ56" s="12"/>
+      <c r="CK56" s="12"/>
+      <c r="CL56" s="12"/>
+      <c r="CM56" s="12"/>
+      <c r="CN56" s="12"/>
+      <c r="CO56" s="13"/>
+    </row>
+    <row r="57" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="89">
         <v>10</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="25" t="s">
         <v>4</v>
       </c>
@@ -4625,12 +4929,14 @@
       <c r="BY57" s="17"/>
       <c r="BZ57" s="15"/>
       <c r="CG57" s="17"/>
-    </row>
-    <row r="58" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
+      <c r="CH57" s="15"/>
+      <c r="CO57" s="17"/>
+    </row>
+    <row r="58" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="89"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="26" t="s">
         <v>7</v>
       </c>
@@ -4654,12 +4960,14 @@
       <c r="BY58" s="20"/>
       <c r="BZ58" s="18"/>
       <c r="CG58" s="20"/>
-    </row>
-    <row r="59" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
+      <c r="CH58" s="18"/>
+      <c r="CO58" s="20"/>
+    </row>
+    <row r="59" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="89"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="85"/>
       <c r="E59" s="26" t="s">
         <v>8</v>
       </c>
@@ -4683,12 +4991,14 @@
       <c r="BY59" s="20"/>
       <c r="BZ59" s="18"/>
       <c r="CG59" s="20"/>
-    </row>
-    <row r="60" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
+      <c r="CH59" s="18"/>
+      <c r="CO59" s="20"/>
+    </row>
+    <row r="60" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="89"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="41" t="s">
         <v>9</v>
       </c>
@@ -4772,14 +5082,22 @@
       <c r="CE60" s="19"/>
       <c r="CF60" s="19"/>
       <c r="CG60" s="20"/>
-    </row>
-    <row r="61" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72">
+      <c r="CH60" s="18"/>
+      <c r="CI60" s="19"/>
+      <c r="CJ60" s="19"/>
+      <c r="CK60" s="19"/>
+      <c r="CL60" s="19"/>
+      <c r="CM60" s="19"/>
+      <c r="CN60" s="19"/>
+      <c r="CO60" s="20"/>
+    </row>
+    <row r="61" spans="1:93" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="89">
         <v>11</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="38" t="s">
         <v>4</v>
       </c>
@@ -4803,12 +5121,14 @@
       <c r="BY61" s="11"/>
       <c r="BZ61" s="9"/>
       <c r="CG61" s="11"/>
-    </row>
-    <row r="62" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
+      <c r="CH61" s="9"/>
+      <c r="CO61" s="11"/>
+    </row>
+    <row r="62" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="89"/>
       <c r="B62" s="87"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="39" t="s">
         <v>6</v>
       </c>
@@ -4822,12 +5142,13 @@
       <c r="BQ62" s="13"/>
       <c r="BY62" s="13"/>
       <c r="CG62" s="13"/>
-    </row>
-    <row r="63" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
+      <c r="CO62" s="13"/>
+    </row>
+    <row r="63" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="89"/>
       <c r="B63" s="87"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="40" t="s">
         <v>8</v>
       </c>
@@ -4841,12 +5162,13 @@
       <c r="BQ63" s="13"/>
       <c r="BY63" s="13"/>
       <c r="CG63" s="13"/>
-    </row>
-    <row r="64" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
+      <c r="CO63" s="13"/>
+    </row>
+    <row r="64" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="89"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
       <c r="E64" s="39" t="s">
         <v>9</v>
       </c>
@@ -4930,14 +5252,22 @@
       <c r="CE64" s="12"/>
       <c r="CF64" s="12"/>
       <c r="CG64" s="13"/>
-    </row>
-    <row r="65" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72">
+      <c r="CH64" s="12"/>
+      <c r="CI64" s="12"/>
+      <c r="CJ64" s="12"/>
+      <c r="CK64" s="12"/>
+      <c r="CL64" s="12"/>
+      <c r="CM64" s="12"/>
+      <c r="CN64" s="12"/>
+      <c r="CO64" s="13"/>
+    </row>
+    <row r="65" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="89">
         <v>12</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="77"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="76"/>
       <c r="E65" s="25" t="s">
         <v>4</v>
       </c>
@@ -4961,12 +5291,14 @@
       <c r="BY65" s="17"/>
       <c r="BZ65" s="15"/>
       <c r="CG65" s="17"/>
-    </row>
-    <row r="66" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
+      <c r="CH65" s="15"/>
+      <c r="CO65" s="17"/>
+    </row>
+    <row r="66" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="89"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="26" t="s">
         <v>6</v>
       </c>
@@ -4990,12 +5322,14 @@
       <c r="BY66" s="20"/>
       <c r="BZ66" s="18"/>
       <c r="CG66" s="20"/>
-    </row>
-    <row r="67" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
+      <c r="CH66" s="18"/>
+      <c r="CO66" s="20"/>
+    </row>
+    <row r="67" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="89"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="26" t="s">
         <v>8</v>
       </c>
@@ -5019,12 +5353,14 @@
       <c r="BY67" s="20"/>
       <c r="BZ67" s="18"/>
       <c r="CG67" s="20"/>
-    </row>
-    <row r="68" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="79"/>
+      <c r="CH67" s="18"/>
+      <c r="CO67" s="20"/>
+    </row>
+    <row r="68" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="89"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
       <c r="E68" s="41" t="s">
         <v>9</v>
       </c>
@@ -5108,14 +5444,22 @@
       <c r="CE68" s="19"/>
       <c r="CF68" s="19"/>
       <c r="CG68" s="20"/>
-    </row>
-    <row r="69" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72">
+      <c r="CH68" s="18"/>
+      <c r="CI68" s="19"/>
+      <c r="CJ68" s="19"/>
+      <c r="CK68" s="19"/>
+      <c r="CL68" s="19"/>
+      <c r="CM68" s="19"/>
+      <c r="CN68" s="19"/>
+      <c r="CO68" s="20"/>
+    </row>
+    <row r="69" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="89">
         <v>13</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="38" t="s">
         <v>4</v>
       </c>
@@ -5139,12 +5483,14 @@
       <c r="BY69" s="11"/>
       <c r="BZ69" s="9"/>
       <c r="CG69" s="11"/>
-    </row>
-    <row r="70" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
+      <c r="CH69" s="9"/>
+      <c r="CO69" s="11"/>
+    </row>
+    <row r="70" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="89"/>
       <c r="B70" s="87"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="39" t="s">
         <v>6</v>
       </c>
@@ -5158,12 +5504,13 @@
       <c r="BQ70" s="13"/>
       <c r="BY70" s="13"/>
       <c r="CG70" s="13"/>
-    </row>
-    <row r="71" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
+      <c r="CO70" s="13"/>
+    </row>
+    <row r="71" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="89"/>
       <c r="B71" s="87"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
       <c r="E71" s="40" t="s">
         <v>8</v>
       </c>
@@ -5177,12 +5524,13 @@
       <c r="BQ71" s="13"/>
       <c r="BY71" s="13"/>
       <c r="CG71" s="13"/>
-    </row>
-    <row r="72" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
+      <c r="CO71" s="13"/>
+    </row>
+    <row r="72" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="89"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
       <c r="E72" s="39" t="s">
         <v>9</v>
       </c>
@@ -5266,14 +5614,22 @@
       <c r="CE72" s="12"/>
       <c r="CF72" s="12"/>
       <c r="CG72" s="13"/>
-    </row>
-    <row r="73" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72">
+      <c r="CH72" s="12"/>
+      <c r="CI72" s="12"/>
+      <c r="CJ72" s="12"/>
+      <c r="CK72" s="12"/>
+      <c r="CL72" s="12"/>
+      <c r="CM72" s="12"/>
+      <c r="CN72" s="12"/>
+      <c r="CO72" s="13"/>
+    </row>
+    <row r="73" spans="1:93" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="89">
         <v>14</v>
       </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="77"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="25" t="s">
         <v>4</v>
       </c>
@@ -5297,12 +5653,14 @@
       <c r="BY73" s="17"/>
       <c r="BZ73" s="15"/>
       <c r="CG73" s="17"/>
-    </row>
-    <row r="74" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
+      <c r="CH73" s="15"/>
+      <c r="CO73" s="17"/>
+    </row>
+    <row r="74" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="89"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
       <c r="E74" s="26" t="s">
         <v>6</v>
       </c>
@@ -5326,12 +5684,14 @@
       <c r="BY74" s="20"/>
       <c r="BZ74" s="18"/>
       <c r="CG74" s="20"/>
-    </row>
-    <row r="75" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
+      <c r="CH74" s="18"/>
+      <c r="CO74" s="20"/>
+    </row>
+    <row r="75" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="89"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
       <c r="E75" s="26" t="s">
         <v>8</v>
       </c>
@@ -5355,12 +5715,14 @@
       <c r="BY75" s="20"/>
       <c r="BZ75" s="18"/>
       <c r="CG75" s="20"/>
-    </row>
-    <row r="76" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
+      <c r="CH75" s="18"/>
+      <c r="CO75" s="20"/>
+    </row>
+    <row r="76" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="89"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
       <c r="E76" s="41" t="s">
         <v>9</v>
       </c>
@@ -5444,14 +5806,22 @@
       <c r="CE76" s="19"/>
       <c r="CF76" s="19"/>
       <c r="CG76" s="20"/>
-    </row>
-    <row r="77" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72">
+      <c r="CH76" s="18"/>
+      <c r="CI76" s="19"/>
+      <c r="CJ76" s="19"/>
+      <c r="CK76" s="19"/>
+      <c r="CL76" s="19"/>
+      <c r="CM76" s="19"/>
+      <c r="CN76" s="19"/>
+      <c r="CO76" s="20"/>
+    </row>
+    <row r="77" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="89">
         <v>15</v>
       </c>
-      <c r="B77" s="93"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="38" t="s">
         <v>4</v>
       </c>
@@ -5475,12 +5845,14 @@
       <c r="BY77" s="11"/>
       <c r="BZ77" s="9"/>
       <c r="CG77" s="11"/>
-    </row>
-    <row r="78" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
+      <c r="CH77" s="9"/>
+      <c r="CO77" s="11"/>
+    </row>
+    <row r="78" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="89"/>
       <c r="B78" s="87"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="39" t="s">
         <v>6</v>
       </c>
@@ -5494,12 +5866,13 @@
       <c r="BQ78" s="13"/>
       <c r="BY78" s="13"/>
       <c r="CG78" s="13"/>
-    </row>
-    <row r="79" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
+      <c r="CO78" s="13"/>
+    </row>
+    <row r="79" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="89"/>
       <c r="B79" s="87"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="40" t="s">
         <v>8</v>
       </c>
@@ -5513,12 +5886,13 @@
       <c r="BQ79" s="13"/>
       <c r="BY79" s="13"/>
       <c r="CG79" s="13"/>
-    </row>
-    <row r="80" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
+      <c r="CO79" s="13"/>
+    </row>
+    <row r="80" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="89"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="39" t="s">
         <v>9</v>
       </c>
@@ -5602,14 +5976,22 @@
       <c r="CE80" s="12"/>
       <c r="CF80" s="12"/>
       <c r="CG80" s="13"/>
-    </row>
-    <row r="81" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="72">
+      <c r="CH80" s="12"/>
+      <c r="CI80" s="12"/>
+      <c r="CJ80" s="12"/>
+      <c r="CK80" s="12"/>
+      <c r="CL80" s="12"/>
+      <c r="CM80" s="12"/>
+      <c r="CN80" s="12"/>
+      <c r="CO80" s="13"/>
+    </row>
+    <row r="81" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="89">
         <v>16</v>
       </c>
-      <c r="B81" s="77"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="77"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="76"/>
       <c r="E81" s="25" t="s">
         <v>4</v>
       </c>
@@ -5633,12 +6015,14 @@
       <c r="BY81" s="17"/>
       <c r="BZ81" s="15"/>
       <c r="CG81" s="17"/>
-    </row>
-    <row r="82" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="79"/>
+      <c r="CH81" s="15"/>
+      <c r="CO81" s="17"/>
+    </row>
+    <row r="82" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="89"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="26" t="s">
         <v>6</v>
       </c>
@@ -5662,12 +6046,14 @@
       <c r="BY82" s="20"/>
       <c r="BZ82" s="18"/>
       <c r="CG82" s="20"/>
-    </row>
-    <row r="83" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="79"/>
+      <c r="CH82" s="18"/>
+      <c r="CO82" s="20"/>
+    </row>
+    <row r="83" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="89"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="26" t="s">
         <v>8</v>
       </c>
@@ -5691,12 +6077,14 @@
       <c r="BY83" s="20"/>
       <c r="BZ83" s="18"/>
       <c r="CG83" s="20"/>
-    </row>
-    <row r="84" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="72"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
+      <c r="CH83" s="18"/>
+      <c r="CO83" s="20"/>
+    </row>
+    <row r="84" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="89"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
       <c r="E84" s="41" t="s">
         <v>9</v>
       </c>
@@ -5780,14 +6168,22 @@
       <c r="CE84" s="19"/>
       <c r="CF84" s="19"/>
       <c r="CG84" s="20"/>
-    </row>
-    <row r="85" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="92"/>
-      <c r="B85" s="95" t="s">
+      <c r="CH84" s="18"/>
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="20"/>
+    </row>
+    <row r="85" spans="1:93" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="90"/>
+      <c r="B85" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
       <c r="E85" s="29"/>
       <c r="F85" s="30"/>
       <c r="G85" s="31"/>
@@ -5871,12 +6267,20 @@
       <c r="CE85" s="31"/>
       <c r="CF85" s="31"/>
       <c r="CG85" s="36"/>
-    </row>
-    <row r="86" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="92"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="98"/>
-      <c r="D86" s="98"/>
+      <c r="CH85" s="30"/>
+      <c r="CI85" s="31"/>
+      <c r="CJ85" s="31"/>
+      <c r="CK85" s="31"/>
+      <c r="CL85" s="31"/>
+      <c r="CM85" s="31"/>
+      <c r="CN85" s="31"/>
+      <c r="CO85" s="36"/>
+    </row>
+    <row r="86" spans="1:93" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="90"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
       <c r="E86" s="32"/>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
@@ -5958,18 +6362,59 @@
       <c r="CE86" s="34"/>
       <c r="CF86" s="34"/>
       <c r="CG86" s="35"/>
+      <c r="CH86" s="33"/>
+      <c r="CI86" s="34"/>
+      <c r="CJ86" s="34"/>
+      <c r="CK86" s="34"/>
+      <c r="CL86" s="34"/>
+      <c r="CM86" s="34"/>
+      <c r="CN86" s="34"/>
+      <c r="CO86" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="C69:D72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="C73:D76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:D80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C81:D84"/>
+  <mergeCells count="64">
+    <mergeCell ref="CH1:CO1"/>
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="C61:D64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:D68"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C57:D60"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:D48"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:D24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A73:A76"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="A81:A84"/>
@@ -5983,47 +6428,15 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:D24"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C45:D48"/>
-    <mergeCell ref="C61:D64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:D68"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C57:D60"/>
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="C69:D72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="C73:D76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:D80"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:D84"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
+++ b/src/Dokumentation Teil 1/_210_Gantt-Diagramm.110.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -205,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +246,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C9E2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,7 +428,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -550,8 +557,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -654,6 +659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -966,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO86"/>
+  <dimension ref="A1:CG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM7" sqref="AM7"/>
+    <sheetView tabSelected="1" topLeftCell="AB16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF28" sqref="BF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,13 +1017,10 @@
     <col min="78" max="78" width="3.140625" style="5" customWidth="1"/>
     <col min="79" max="84" width="3.140625" style="6" customWidth="1"/>
     <col min="85" max="85" width="3.140625" style="8" customWidth="1"/>
-    <col min="86" max="86" width="3.140625" style="5" customWidth="1"/>
-    <col min="87" max="92" width="3.140625" style="6" customWidth="1"/>
-    <col min="93" max="93" width="3.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23"/>
@@ -1026,119 +1031,109 @@
       <c r="E1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="92">
+      <c r="F1" s="90">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="92">
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="90">
         <v>6.02</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="92">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="90">
         <v>7.02</v>
       </c>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="92">
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="90">
         <v>8.02</v>
       </c>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="92">
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="90">
         <v>9.02</v>
       </c>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="92" t="s">
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="94"/>
-      <c r="BB1" s="92">
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="90">
         <v>19.02</v>
       </c>
-      <c r="BC1" s="93"/>
-      <c r="BD1" s="93"/>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="94"/>
-      <c r="BJ1" s="92">
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="90">
         <v>20.02</v>
       </c>
-      <c r="BK1" s="93"/>
-      <c r="BL1" s="93"/>
-      <c r="BM1" s="93"/>
-      <c r="BN1" s="93"/>
-      <c r="BO1" s="93"/>
-      <c r="BP1" s="93"/>
-      <c r="BQ1" s="94"/>
-      <c r="BR1" s="92">
+      <c r="BK1" s="91"/>
+      <c r="BL1" s="91"/>
+      <c r="BM1" s="91"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="91"/>
+      <c r="BP1" s="91"/>
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="90">
         <v>21.02</v>
       </c>
-      <c r="BS1" s="93"/>
-      <c r="BT1" s="93"/>
-      <c r="BU1" s="93"/>
-      <c r="BV1" s="93"/>
-      <c r="BW1" s="93"/>
-      <c r="BX1" s="93"/>
-      <c r="BY1" s="94"/>
-      <c r="BZ1" s="92">
+      <c r="BS1" s="91"/>
+      <c r="BT1" s="91"/>
+      <c r="BU1" s="91"/>
+      <c r="BV1" s="91"/>
+      <c r="BW1" s="91"/>
+      <c r="BX1" s="91"/>
+      <c r="BY1" s="92"/>
+      <c r="BZ1" s="90">
         <v>22.02</v>
       </c>
-      <c r="CA1" s="93"/>
-      <c r="CB1" s="93"/>
-      <c r="CC1" s="93"/>
-      <c r="CD1" s="93"/>
-      <c r="CE1" s="93"/>
-      <c r="CF1" s="93"/>
-      <c r="CG1" s="94"/>
-      <c r="CH1" s="92">
-        <v>26.02</v>
-      </c>
-      <c r="CI1" s="93"/>
-      <c r="CJ1" s="93"/>
-      <c r="CK1" s="93"/>
-      <c r="CL1" s="93"/>
-      <c r="CM1" s="93"/>
-      <c r="CN1" s="93"/>
-      <c r="CO1" s="94"/>
-    </row>
-    <row r="2" spans="1:93" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
+      <c r="CA1" s="91"/>
+      <c r="CB1" s="91"/>
+      <c r="CC1" s="91"/>
+      <c r="CD1" s="91"/>
+      <c r="CE1" s="91"/>
+      <c r="CF1" s="91"/>
+      <c r="CG1" s="92"/>
+    </row>
+    <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="89"/>
       <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1389,47 +1384,23 @@
       <c r="CG2" s="7">
         <v>8</v>
       </c>
-      <c r="CH2" s="3">
+    </row>
+    <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87">
         <v>1</v>
       </c>
-      <c r="CI2" s="4">
-        <v>2</v>
-      </c>
-      <c r="CJ2" s="4">
-        <v>3</v>
-      </c>
-      <c r="CK2" s="4">
-        <v>4</v>
-      </c>
-      <c r="CL2" s="4">
-        <v>5</v>
-      </c>
-      <c r="CM2" s="4">
-        <v>6</v>
-      </c>
-      <c r="CN2" s="4">
-        <v>7</v>
-      </c>
-      <c r="CO2" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:93" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89">
-        <v>1</v>
-      </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="99"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="M3" s="11"/>
       <c r="N3" s="61"/>
       <c r="O3" s="62"/>
@@ -1451,18 +1422,21 @@
       <c r="BY3" s="11"/>
       <c r="BZ3" s="9"/>
       <c r="CG3" s="11"/>
-      <c r="CH3" s="9"/>
-      <c r="CO3" s="11"/>
-    </row>
-    <row r="4" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+    </row>
+    <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="39" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="M4" s="13"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
       <c r="U4" s="13"/>
       <c r="AC4" s="13"/>
       <c r="AK4" s="13"/>
@@ -1472,13 +1446,12 @@
       <c r="BQ4" s="13"/>
       <c r="BY4" s="13"/>
       <c r="CG4" s="13"/>
-      <c r="CO4" s="13"/>
-    </row>
-    <row r="5" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+    </row>
+    <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="40" t="s">
         <v>33</v>
       </c>
@@ -1497,27 +1470,26 @@
       <c r="BQ5" s="13"/>
       <c r="BY5" s="13"/>
       <c r="CG5" s="13"/>
-      <c r="CO5" s="13"/>
-    </row>
-    <row r="6" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+    </row>
+    <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -1587,16 +1559,8 @@
       <c r="CE6" s="12"/>
       <c r="CF6" s="12"/>
       <c r="CG6" s="13"/>
-      <c r="CH6" s="12"/>
-      <c r="CI6" s="12"/>
-      <c r="CJ6" s="12"/>
-      <c r="CK6" s="12"/>
-      <c r="CL6" s="12"/>
-      <c r="CM6" s="12"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="13"/>
-    </row>
-    <row r="7" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="47"/>
       <c r="C7" s="49"/>
@@ -1684,16 +1648,8 @@
       <c r="CE7" s="12"/>
       <c r="CF7" s="12"/>
       <c r="CG7" s="13"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="12"/>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
-      <c r="CM7" s="12"/>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="13"/>
-    </row>
-    <row r="8" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="47"/>
       <c r="C8" s="49"/>
@@ -1701,17 +1657,17 @@
       <c r="E8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
@@ -1781,26 +1737,18 @@
       <c r="CE8" s="12"/>
       <c r="CF8" s="12"/>
       <c r="CG8" s="13"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="12"/>
-      <c r="CJ8" s="12"/>
-      <c r="CK8" s="12"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="12"/>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="13"/>
-    </row>
-    <row r="9" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+    </row>
+    <row r="9" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="96"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="25" t="s">
         <v>27</v>
       </c>
@@ -1826,14 +1774,12 @@
       <c r="BY9" s="17"/>
       <c r="BZ9" s="15"/>
       <c r="CG9" s="17"/>
-      <c r="CH9" s="15"/>
-      <c r="CO9" s="17"/>
-    </row>
-    <row r="10" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
+    </row>
+    <row r="10" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="41" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +1787,9 @@
       <c r="M10" s="20"/>
       <c r="N10" s="18"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="18"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="18"/>
       <c r="AK10" s="20"/>
@@ -1857,14 +1805,12 @@
       <c r="BY10" s="20"/>
       <c r="BZ10" s="18"/>
       <c r="CG10" s="20"/>
-      <c r="CH10" s="18"/>
-      <c r="CO10" s="20"/>
-    </row>
-    <row r="11" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+    </row>
+    <row r="11" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="26" t="s">
         <v>33</v>
       </c>
@@ -1890,14 +1836,12 @@
       <c r="BY11" s="20"/>
       <c r="BZ11" s="18"/>
       <c r="CG11" s="20"/>
-      <c r="CH11" s="18"/>
-      <c r="CO11" s="20"/>
-    </row>
-    <row r="12" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
+    </row>
+    <row r="12" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="41" t="s">
         <v>34</v>
       </c>
@@ -1917,9 +1861,9 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
@@ -1981,16 +1925,8 @@
       <c r="CE12" s="19"/>
       <c r="CF12" s="19"/>
       <c r="CG12" s="20"/>
-      <c r="CH12" s="18"/>
-      <c r="CI12" s="19"/>
-      <c r="CJ12" s="19"/>
-      <c r="CK12" s="19"/>
-      <c r="CL12" s="19"/>
-      <c r="CM12" s="19"/>
-      <c r="CN12" s="19"/>
-      <c r="CO12" s="20"/>
-    </row>
-    <row r="13" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="45"/>
       <c r="C13" s="55"/>
@@ -2078,16 +2014,8 @@
       <c r="CE13" s="19"/>
       <c r="CF13" s="19"/>
       <c r="CG13" s="20"/>
-      <c r="CH13" s="18"/>
-      <c r="CI13" s="19"/>
-      <c r="CJ13" s="19"/>
-      <c r="CK13" s="19"/>
-      <c r="CL13" s="19"/>
-      <c r="CM13" s="19"/>
-      <c r="CN13" s="19"/>
-      <c r="CO13" s="20"/>
-    </row>
-    <row r="14" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="45"/>
       <c r="C14" s="55"/>
@@ -2111,9 +2039,9 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
@@ -2175,26 +2103,18 @@
       <c r="CE14" s="19"/>
       <c r="CF14" s="19"/>
       <c r="CG14" s="20"/>
-      <c r="CH14" s="18"/>
-      <c r="CI14" s="19"/>
-      <c r="CJ14" s="19"/>
-      <c r="CK14" s="19"/>
-      <c r="CL14" s="19"/>
-      <c r="CM14" s="19"/>
-      <c r="CN14" s="19"/>
-      <c r="CO14" s="20"/>
-    </row>
-    <row r="15" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+    </row>
+    <row r="15" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87">
         <v>3</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="60" t="s">
         <v>27</v>
       </c>
@@ -2222,35 +2142,36 @@
       <c r="BY15" s="11"/>
       <c r="BZ15" s="9"/>
       <c r="CG15" s="11"/>
-      <c r="CH15" s="9"/>
-      <c r="CO15" s="11"/>
-    </row>
-    <row r="16" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="103"/>
+    </row>
+    <row r="16" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="39" t="s">
         <v>28</v>
       </c>
       <c r="M16" s="13"/>
       <c r="U16" s="13"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
       <c r="AC16" s="13"/>
       <c r="AK16" s="13"/>
       <c r="AS16" s="13"/>
-      <c r="AT16" s="72"/>
+      <c r="AT16" s="70"/>
       <c r="BA16" s="13"/>
       <c r="BI16" s="13"/>
       <c r="BQ16" s="13"/>
       <c r="BY16" s="13"/>
       <c r="CG16" s="13"/>
-      <c r="CO16" s="13"/>
-    </row>
-    <row r="17" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="103"/>
+    </row>
+    <row r="17" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
@@ -2268,13 +2189,12 @@
       <c r="BQ17" s="13"/>
       <c r="BY17" s="13"/>
       <c r="CG17" s="13"/>
-      <c r="CO17" s="13"/>
-    </row>
-    <row r="18" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="103"/>
+    </row>
+    <row r="18" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="39" t="s">
         <v>34</v>
       </c>
@@ -2297,11 +2217,11 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="13"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="105"/>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
@@ -2358,16 +2278,8 @@
       <c r="CE18" s="12"/>
       <c r="CF18" s="12"/>
       <c r="CG18" s="13"/>
-      <c r="CH18" s="12"/>
-      <c r="CI18" s="12"/>
-      <c r="CJ18" s="12"/>
-      <c r="CK18" s="12"/>
-      <c r="CL18" s="12"/>
-      <c r="CM18" s="12"/>
-      <c r="CN18" s="12"/>
-      <c r="CO18" s="13"/>
-    </row>
-    <row r="19" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="47"/>
       <c r="C19" s="49"/>
@@ -2455,16 +2367,8 @@
       <c r="CE19" s="12"/>
       <c r="CF19" s="12"/>
       <c r="CG19" s="13"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="12"/>
-      <c r="CJ19" s="12"/>
-      <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="13"/>
-    </row>
-    <row r="20" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="47"/>
       <c r="C20" s="49"/>
@@ -2552,26 +2456,18 @@
       <c r="CE20" s="12"/>
       <c r="CF20" s="12"/>
       <c r="CG20" s="13"/>
-      <c r="CH20" s="12"/>
-      <c r="CI20" s="12"/>
-      <c r="CJ20" s="12"/>
-      <c r="CK20" s="12"/>
-      <c r="CL20" s="12"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="12"/>
-      <c r="CO20" s="13"/>
-    </row>
-    <row r="21" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
+    </row>
+    <row r="21" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87">
         <v>4</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="96"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="25" t="s">
         <v>27</v>
       </c>
@@ -2583,7 +2479,7 @@
       <c r="AC21" s="17"/>
       <c r="AD21" s="15"/>
       <c r="AK21" s="17"/>
-      <c r="AL21" s="15"/>
+      <c r="AL21" s="108"/>
       <c r="AS21" s="17"/>
       <c r="AT21" s="61"/>
       <c r="AU21" s="62"/>
@@ -2601,14 +2497,12 @@
       <c r="BY21" s="17"/>
       <c r="BZ21" s="15"/>
       <c r="CG21" s="17"/>
-      <c r="CH21" s="15"/>
-      <c r="CO21" s="17"/>
-    </row>
-    <row r="22" spans="1:93" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
+    </row>
+    <row r="22" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="41" t="s">
         <v>29</v>
       </c>
@@ -2638,14 +2532,12 @@
       <c r="BY22" s="20"/>
       <c r="BZ22" s="18"/>
       <c r="CG22" s="20"/>
-      <c r="CH22" s="18"/>
-      <c r="CO22" s="20"/>
-    </row>
-    <row r="23" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
+    </row>
+    <row r="23" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="26" t="s">
         <v>33</v>
       </c>
@@ -2681,14 +2573,12 @@
       <c r="BY23" s="20"/>
       <c r="BZ23" s="18"/>
       <c r="CG23" s="20"/>
-      <c r="CH23" s="18"/>
-      <c r="CO23" s="20"/>
-    </row>
-    <row r="24" spans="1:93" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+    </row>
+    <row r="24" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="41" t="s">
         <v>34</v>
       </c>
@@ -2740,23 +2630,23 @@
       <c r="AY24" s="19"/>
       <c r="AZ24" s="19"/>
       <c r="BA24" s="20"/>
-      <c r="BB24" s="106"/>
-      <c r="BC24" s="72"/>
-      <c r="BD24" s="72"/>
-      <c r="BE24" s="72"/>
-      <c r="BF24" s="72"/>
-      <c r="BG24" s="72"/>
-      <c r="BH24" s="72"/>
-      <c r="BI24" s="107"/>
-      <c r="BJ24" s="106"/>
-      <c r="BK24" s="72"/>
-      <c r="BL24" s="72"/>
-      <c r="BM24" s="72"/>
-      <c r="BN24" s="72"/>
-      <c r="BO24" s="72"/>
-      <c r="BP24" s="72"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="68"/>
+      <c r="BD24" s="68"/>
+      <c r="BE24" s="68"/>
+      <c r="BF24" s="68"/>
+      <c r="BG24" s="68"/>
+      <c r="BH24" s="68"/>
+      <c r="BI24" s="69"/>
+      <c r="BJ24" s="67"/>
+      <c r="BK24" s="68"/>
+      <c r="BL24" s="68"/>
+      <c r="BM24" s="106"/>
+      <c r="BN24" s="106"/>
+      <c r="BO24" s="106"/>
+      <c r="BP24" s="106"/>
       <c r="BQ24" s="107"/>
-      <c r="BR24" s="106"/>
+      <c r="BR24" s="18"/>
       <c r="BS24" s="19"/>
       <c r="BT24" s="19"/>
       <c r="BU24" s="19"/>
@@ -2772,16 +2662,8 @@
       <c r="CE24" s="19"/>
       <c r="CF24" s="19"/>
       <c r="CG24" s="20"/>
-      <c r="CH24" s="18"/>
-      <c r="CI24" s="19"/>
-      <c r="CJ24" s="19"/>
-      <c r="CK24" s="19"/>
-      <c r="CL24" s="19"/>
-      <c r="CM24" s="19"/>
-      <c r="CN24" s="19"/>
-      <c r="CO24" s="20"/>
-    </row>
-    <row r="25" spans="1:93" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="45"/>
       <c r="C25" s="55"/>
@@ -2869,16 +2751,8 @@
       <c r="CE25" s="19"/>
       <c r="CF25" s="19"/>
       <c r="CG25" s="20"/>
-      <c r="CH25" s="18"/>
-      <c r="CI25" s="19"/>
-      <c r="CJ25" s="19"/>
-      <c r="CK25" s="19"/>
-      <c r="CL25" s="19"/>
-      <c r="CM25" s="19"/>
-      <c r="CN25" s="19"/>
-      <c r="CO25" s="20"/>
-    </row>
-    <row r="26" spans="1:93" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:85" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="45"/>
       <c r="C26" s="55"/>
@@ -2934,17 +2808,17 @@
       <c r="AY26" s="19"/>
       <c r="AZ26" s="19"/>
       <c r="BA26" s="20"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="19"/>
-      <c r="BE26" s="19"/>
-      <c r="BF26" s="19"/>
-      <c r="BG26" s="19"/>
-      <c r="BH26" s="19"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="18"/>
-      <c r="BK26" s="19"/>
-      <c r="BL26" s="19"/>
+      <c r="BB26" s="104"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="70"/>
+      <c r="BF26" s="70"/>
+      <c r="BG26" s="70"/>
+      <c r="BH26" s="70"/>
+      <c r="BI26" s="105"/>
+      <c r="BJ26" s="104"/>
+      <c r="BK26" s="70"/>
+      <c r="BL26" s="70"/>
       <c r="BM26" s="19"/>
       <c r="BN26" s="19"/>
       <c r="BO26" s="19"/>
@@ -2966,26 +2840,18 @@
       <c r="CE26" s="19"/>
       <c r="CF26" s="19"/>
       <c r="CG26" s="20"/>
-      <c r="CH26" s="18"/>
-      <c r="CI26" s="19"/>
-      <c r="CJ26" s="19"/>
-      <c r="CK26" s="19"/>
-      <c r="CL26" s="19"/>
-      <c r="CM26" s="19"/>
-      <c r="CN26" s="19"/>
-      <c r="CO26" s="20"/>
-    </row>
-    <row r="27" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+    </row>
+    <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87">
         <v>5</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="104"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="38" t="s">
         <v>27</v>
       </c>
@@ -3000,9 +2866,7 @@
       <c r="AL27" s="9"/>
       <c r="AS27" s="11"/>
       <c r="AT27" s="9"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="70"/>
-      <c r="BA27" s="71"/>
+      <c r="BA27" s="11"/>
       <c r="BB27" s="9"/>
       <c r="BI27" s="11"/>
       <c r="BJ27" s="9"/>
@@ -3011,14 +2875,12 @@
       <c r="BY27" s="11"/>
       <c r="BZ27" s="9"/>
       <c r="CG27" s="11"/>
-      <c r="CH27" s="9"/>
-      <c r="CO27" s="11"/>
-    </row>
-    <row r="28" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="103"/>
+    </row>
+    <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="39" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +2889,9 @@
       <c r="AC28" s="13"/>
       <c r="AK28" s="13"/>
       <c r="AS28" s="13"/>
-      <c r="BA28" s="13"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="105"/>
       <c r="BB28" s="66"/>
       <c r="BC28" s="66"/>
       <c r="BD28" s="66"/>
@@ -3035,13 +2899,12 @@
       <c r="BQ28" s="13"/>
       <c r="BY28" s="13"/>
       <c r="CG28" s="13"/>
-      <c r="CO28" s="13"/>
-    </row>
-    <row r="29" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="103"/>
+    </row>
+    <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="40" t="s">
         <v>33</v>
       </c>
@@ -3058,13 +2921,12 @@
       <c r="BQ29" s="13"/>
       <c r="BY29" s="13"/>
       <c r="CG29" s="13"/>
-      <c r="CO29" s="13"/>
-    </row>
-    <row r="30" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="103"/>
+    </row>
+    <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="39" t="s">
         <v>34</v>
       </c>
@@ -3116,9 +2978,9 @@
       <c r="AY30" s="12"/>
       <c r="AZ30" s="12"/>
       <c r="BA30" s="13"/>
-      <c r="BB30" s="12"/>
-      <c r="BC30" s="12"/>
-      <c r="BD30" s="12"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="66"/>
+      <c r="BD30" s="66"/>
       <c r="BE30" s="12"/>
       <c r="BF30" s="12"/>
       <c r="BG30" s="12"/>
@@ -3129,35 +2991,27 @@
       <c r="BL30" s="12"/>
       <c r="BM30" s="12"/>
       <c r="BN30" s="12"/>
-      <c r="BO30" s="12"/>
-      <c r="BP30" s="12"/>
-      <c r="BQ30" s="13"/>
-      <c r="BR30" s="12"/>
-      <c r="BS30" s="12"/>
-      <c r="BT30" s="72"/>
-      <c r="BU30" s="72"/>
-      <c r="BV30" s="72"/>
-      <c r="BW30" s="72"/>
-      <c r="BX30" s="72"/>
-      <c r="BY30" s="107"/>
-      <c r="BZ30" s="72"/>
-      <c r="CA30" s="72"/>
-      <c r="CB30" s="72"/>
+      <c r="BO30" s="70"/>
+      <c r="BP30" s="70"/>
+      <c r="BQ30" s="105"/>
+      <c r="BR30" s="70"/>
+      <c r="BS30" s="70"/>
+      <c r="BT30" s="70"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="12"/>
+      <c r="BY30" s="13"/>
+      <c r="BZ30" s="12"/>
+      <c r="CA30" s="12"/>
+      <c r="CB30" s="12"/>
       <c r="CC30" s="12"/>
       <c r="CD30" s="12"/>
       <c r="CE30" s="12"/>
       <c r="CF30" s="12"/>
       <c r="CG30" s="13"/>
-      <c r="CH30" s="12"/>
-      <c r="CI30" s="12"/>
-      <c r="CJ30" s="12"/>
-      <c r="CK30" s="12"/>
-      <c r="CL30" s="12"/>
-      <c r="CM30" s="12"/>
-      <c r="CN30" s="12"/>
-      <c r="CO30" s="13"/>
-    </row>
-    <row r="31" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="47"/>
       <c r="C31" s="49"/>
@@ -3245,16 +3099,8 @@
       <c r="CE31" s="12"/>
       <c r="CF31" s="12"/>
       <c r="CG31" s="13"/>
-      <c r="CH31" s="12"/>
-      <c r="CI31" s="12"/>
-      <c r="CJ31" s="12"/>
-      <c r="CK31" s="12"/>
-      <c r="CL31" s="12"/>
-      <c r="CM31" s="12"/>
-      <c r="CN31" s="12"/>
-      <c r="CO31" s="13"/>
-    </row>
-    <row r="32" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="47"/>
       <c r="C32" s="49"/>
@@ -3342,26 +3188,18 @@
       <c r="CE32" s="12"/>
       <c r="CF32" s="12"/>
       <c r="CG32" s="13"/>
-      <c r="CH32" s="12"/>
-      <c r="CI32" s="12"/>
-      <c r="CJ32" s="12"/>
-      <c r="CK32" s="12"/>
-      <c r="CL32" s="12"/>
-      <c r="CM32" s="12"/>
-      <c r="CN32" s="12"/>
-      <c r="CO32" s="13"/>
-    </row>
-    <row r="33" spans="1:93" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
+    </row>
+    <row r="33" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="87">
         <v>6</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="96"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="25" t="s">
         <v>27</v>
       </c>
@@ -3385,14 +3223,12 @@
       <c r="BY33" s="17"/>
       <c r="BZ33" s="15"/>
       <c r="CG33" s="17"/>
-      <c r="CH33" s="15"/>
-      <c r="CO33" s="17"/>
-    </row>
-    <row r="34" spans="1:93" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
+    </row>
+    <row r="34" spans="1:85" s="19" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="87"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="41" t="s">
         <v>29</v>
       </c>
@@ -3416,14 +3252,12 @@
       <c r="BY34" s="20"/>
       <c r="BZ34" s="18"/>
       <c r="CG34" s="20"/>
-      <c r="CH34" s="18"/>
-      <c r="CO34" s="20"/>
-    </row>
-    <row r="35" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98"/>
+    </row>
+    <row r="35" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="87"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="26" t="s">
         <v>33</v>
       </c>
@@ -3447,14 +3281,12 @@
       <c r="BY35" s="20"/>
       <c r="BZ35" s="18"/>
       <c r="CG35" s="20"/>
-      <c r="CH35" s="18"/>
-      <c r="CO35" s="20"/>
-    </row>
-    <row r="36" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
+    </row>
+    <row r="36" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="87"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="41" t="s">
         <v>34</v>
       </c>
@@ -3536,18 +3368,10 @@
       <c r="CC36" s="19"/>
       <c r="CD36" s="19"/>
       <c r="CE36" s="19"/>
-      <c r="CF36" s="19"/>
-      <c r="CG36" s="107"/>
-      <c r="CH36" s="106"/>
-      <c r="CI36" s="72"/>
-      <c r="CJ36" s="19"/>
-      <c r="CK36" s="19"/>
-      <c r="CL36" s="19"/>
-      <c r="CM36" s="19"/>
-      <c r="CN36" s="19"/>
-      <c r="CO36" s="20"/>
-    </row>
-    <row r="37" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CF36" s="70"/>
+      <c r="CG36" s="20"/>
+    </row>
+    <row r="37" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="45"/>
       <c r="C37" s="55"/>
@@ -3635,16 +3459,8 @@
       <c r="CE37" s="19"/>
       <c r="CF37" s="19"/>
       <c r="CG37" s="20"/>
-      <c r="CH37" s="18"/>
-      <c r="CI37" s="19"/>
-      <c r="CJ37" s="19"/>
-      <c r="CK37" s="19"/>
-      <c r="CL37" s="19"/>
-      <c r="CM37" s="19"/>
-      <c r="CN37" s="19"/>
-      <c r="CO37" s="20"/>
-    </row>
-    <row r="38" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="45"/>
       <c r="C38" s="55"/>
@@ -3676,7 +3492,7 @@
       <c r="AA38" s="19"/>
       <c r="AB38" s="19"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="18"/>
+      <c r="AD38" s="104"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
@@ -3732,26 +3548,18 @@
       <c r="CE38" s="19"/>
       <c r="CF38" s="19"/>
       <c r="CG38" s="20"/>
-      <c r="CH38" s="18"/>
-      <c r="CI38" s="19"/>
-      <c r="CJ38" s="19"/>
-      <c r="CK38" s="19"/>
-      <c r="CL38" s="19"/>
-      <c r="CM38" s="19"/>
-      <c r="CN38" s="19"/>
-      <c r="CO38" s="20"/>
-    </row>
-    <row r="39" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89">
+    </row>
+    <row r="39" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="87">
         <v>7</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C39" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="99"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="60" t="s">
         <v>27</v>
       </c>
@@ -3775,14 +3583,12 @@
       <c r="BY39" s="11"/>
       <c r="BZ39" s="9"/>
       <c r="CG39" s="11"/>
-      <c r="CH39" s="9"/>
-      <c r="CO39" s="11"/>
-    </row>
-    <row r="40" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="103"/>
+    </row>
+    <row r="40" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="87"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="39" t="s">
         <v>30</v>
       </c>
@@ -3796,13 +3602,12 @@
       <c r="BQ40" s="13"/>
       <c r="BY40" s="13"/>
       <c r="CG40" s="13"/>
-      <c r="CO40" s="13"/>
-    </row>
-    <row r="41" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="103"/>
+    </row>
+    <row r="41" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="40" t="s">
         <v>33</v>
       </c>
@@ -3818,19 +3623,18 @@
       <c r="BQ41" s="13"/>
       <c r="BY41" s="13"/>
       <c r="CG41" s="13"/>
-      <c r="CO41" s="13"/>
-    </row>
-    <row r="42" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="103"/>
+    </row>
+    <row r="42" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="101"/>
       <c r="E42" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="70"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
@@ -3908,16 +3712,8 @@
       <c r="CE42" s="12"/>
       <c r="CF42" s="12"/>
       <c r="CG42" s="13"/>
-      <c r="CH42" s="12"/>
-      <c r="CI42" s="12"/>
-      <c r="CJ42" s="12"/>
-      <c r="CK42" s="12"/>
-      <c r="CL42" s="12"/>
-      <c r="CM42" s="12"/>
-      <c r="CN42" s="12"/>
-      <c r="CO42" s="13"/>
-    </row>
-    <row r="43" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="44"/>
       <c r="C43" s="49"/>
@@ -4005,16 +3801,8 @@
       <c r="CE43" s="12"/>
       <c r="CF43" s="12"/>
       <c r="CG43" s="13"/>
-      <c r="CH43" s="12"/>
-      <c r="CI43" s="12"/>
-      <c r="CJ43" s="12"/>
-      <c r="CK43" s="12"/>
-      <c r="CL43" s="12"/>
-      <c r="CM43" s="12"/>
-      <c r="CN43" s="12"/>
-      <c r="CO43" s="13"/>
-    </row>
-    <row r="44" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="44"/>
       <c r="C44" s="49"/>
@@ -4033,7 +3821,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="Q44" s="70"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
@@ -4102,26 +3890,18 @@
       <c r="CE44" s="12"/>
       <c r="CF44" s="12"/>
       <c r="CG44" s="13"/>
-      <c r="CH44" s="12"/>
-      <c r="CI44" s="12"/>
-      <c r="CJ44" s="12"/>
-      <c r="CK44" s="12"/>
-      <c r="CL44" s="12"/>
-      <c r="CM44" s="12"/>
-      <c r="CN44" s="12"/>
-      <c r="CO44" s="13"/>
-    </row>
-    <row r="45" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89">
+    </row>
+    <row r="45" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="87">
         <v>8</v>
       </c>
-      <c r="B45" s="76" t="s">
+      <c r="B45" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="96"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="25" t="s">
         <v>27</v>
       </c>
@@ -4145,14 +3925,12 @@
       <c r="BY45" s="17"/>
       <c r="BZ45" s="15"/>
       <c r="CG45" s="17"/>
-      <c r="CH45" s="15"/>
-      <c r="CO45" s="17"/>
-    </row>
-    <row r="46" spans="1:93" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
+    </row>
+    <row r="46" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="87"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
       <c r="E46" s="41" t="s">
         <v>29</v>
       </c>
@@ -4176,14 +3954,12 @@
       <c r="BY46" s="20"/>
       <c r="BZ46" s="18"/>
       <c r="CG46" s="20"/>
-      <c r="CH46" s="18"/>
-      <c r="CO46" s="20"/>
-    </row>
-    <row r="47" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="98"/>
+    </row>
+    <row r="47" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="87"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="26" t="s">
         <v>33</v>
       </c>
@@ -4231,20 +4007,12 @@
       <c r="CE47" s="50"/>
       <c r="CF47" s="50"/>
       <c r="CG47" s="65"/>
-      <c r="CH47" s="63"/>
-      <c r="CI47" s="50"/>
-      <c r="CJ47" s="50"/>
-      <c r="CK47" s="50"/>
-      <c r="CL47" s="50"/>
-      <c r="CM47" s="50"/>
-      <c r="CN47" s="50"/>
-      <c r="CO47" s="65"/>
-    </row>
-    <row r="48" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
+    </row>
+    <row r="48" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="87"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="41" t="s">
         <v>34</v>
       </c>
@@ -4328,16 +4096,8 @@
       <c r="CE48" s="19"/>
       <c r="CF48" s="19"/>
       <c r="CG48" s="20"/>
-      <c r="CH48" s="18"/>
-      <c r="CI48" s="19"/>
-      <c r="CJ48" s="19"/>
-      <c r="CK48" s="19"/>
-      <c r="CL48" s="19"/>
-      <c r="CM48" s="19"/>
-      <c r="CN48" s="19"/>
-      <c r="CO48" s="20"/>
-    </row>
-    <row r="49" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="46"/>
       <c r="C49" s="55"/>
@@ -4425,16 +4185,8 @@
       <c r="CE49" s="19"/>
       <c r="CF49" s="19"/>
       <c r="CG49" s="20"/>
-      <c r="CH49" s="18"/>
-      <c r="CI49" s="19"/>
-      <c r="CJ49" s="19"/>
-      <c r="CK49" s="19"/>
-      <c r="CL49" s="19"/>
-      <c r="CM49" s="19"/>
-      <c r="CN49" s="19"/>
-      <c r="CO49" s="20"/>
-    </row>
-    <row r="50" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="46"/>
       <c r="C50" s="55"/>
@@ -4486,62 +4238,54 @@
       <c r="AU50" s="19"/>
       <c r="AV50" s="19"/>
       <c r="AW50" s="19"/>
-      <c r="AX50" s="19"/>
-      <c r="AY50" s="19"/>
-      <c r="AZ50" s="19"/>
-      <c r="BA50" s="20"/>
-      <c r="BB50" s="18"/>
-      <c r="BC50" s="19"/>
-      <c r="BD50" s="19"/>
-      <c r="BE50" s="19"/>
-      <c r="BF50" s="19"/>
-      <c r="BG50" s="19"/>
-      <c r="BH50" s="19"/>
-      <c r="BI50" s="20"/>
-      <c r="BJ50" s="18"/>
-      <c r="BK50" s="19"/>
-      <c r="BL50" s="19"/>
-      <c r="BM50" s="19"/>
-      <c r="BN50" s="19"/>
-      <c r="BO50" s="19"/>
-      <c r="BP50" s="19"/>
-      <c r="BQ50" s="20"/>
-      <c r="BR50" s="18"/>
-      <c r="BS50" s="19"/>
-      <c r="BT50" s="19"/>
-      <c r="BU50" s="19"/>
-      <c r="BV50" s="19"/>
-      <c r="BW50" s="19"/>
-      <c r="BX50" s="19"/>
-      <c r="BY50" s="20"/>
-      <c r="BZ50" s="18"/>
-      <c r="CA50" s="19"/>
-      <c r="CB50" s="19"/>
-      <c r="CC50" s="19"/>
-      <c r="CD50" s="19"/>
-      <c r="CE50" s="19"/>
-      <c r="CF50" s="19"/>
-      <c r="CG50" s="20"/>
-      <c r="CH50" s="18"/>
-      <c r="CI50" s="19"/>
-      <c r="CJ50" s="19"/>
-      <c r="CK50" s="19"/>
-      <c r="CL50" s="19"/>
-      <c r="CM50" s="19"/>
-      <c r="CN50" s="19"/>
-      <c r="CO50" s="20"/>
-    </row>
-    <row r="51" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89">
+      <c r="AX50" s="70"/>
+      <c r="AY50" s="70"/>
+      <c r="AZ50" s="70"/>
+      <c r="BA50" s="105"/>
+      <c r="BB50" s="104"/>
+      <c r="BC50" s="70"/>
+      <c r="BD50" s="70"/>
+      <c r="BE50" s="70"/>
+      <c r="BF50" s="70"/>
+      <c r="BG50" s="70"/>
+      <c r="BH50" s="70"/>
+      <c r="BI50" s="105"/>
+      <c r="BJ50" s="104"/>
+      <c r="BK50" s="70"/>
+      <c r="BL50" s="70"/>
+      <c r="BM50" s="70"/>
+      <c r="BN50" s="70"/>
+      <c r="BO50" s="70"/>
+      <c r="BP50" s="70"/>
+      <c r="BQ50" s="105"/>
+      <c r="BR50" s="104"/>
+      <c r="BS50" s="70"/>
+      <c r="BT50" s="70"/>
+      <c r="BU50" s="70"/>
+      <c r="BV50" s="70"/>
+      <c r="BW50" s="70"/>
+      <c r="BX50" s="70"/>
+      <c r="BY50" s="105"/>
+      <c r="BZ50" s="104"/>
+      <c r="CA50" s="70"/>
+      <c r="CB50" s="70"/>
+      <c r="CC50" s="70"/>
+      <c r="CD50" s="70"/>
+      <c r="CE50" s="70"/>
+      <c r="CF50" s="70"/>
+      <c r="CG50" s="105"/>
+    </row>
+    <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="87">
         <v>9</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="99" t="s">
+      <c r="C51" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="99"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="60" t="s">
         <v>27</v>
       </c>
@@ -4565,14 +4309,12 @@
       <c r="BY51" s="11"/>
       <c r="BZ51" s="9"/>
       <c r="CG51" s="11"/>
-      <c r="CH51" s="9"/>
-      <c r="CO51" s="11"/>
-    </row>
-    <row r="52" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="103"/>
+    </row>
+    <row r="52" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="87"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="101"/>
       <c r="E52" s="39" t="s">
         <v>28</v>
       </c>
@@ -4586,13 +4328,12 @@
       <c r="BQ52" s="13"/>
       <c r="BY52" s="13"/>
       <c r="CG52" s="13"/>
-      <c r="CO52" s="13"/>
-    </row>
-    <row r="53" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="89"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="103"/>
+    </row>
+    <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="87"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="101"/>
       <c r="E53" s="40" t="s">
         <v>33</v>
       </c>
@@ -4606,13 +4347,12 @@
       <c r="BQ53" s="13"/>
       <c r="BY53" s="13"/>
       <c r="CG53" s="13"/>
-      <c r="CO53" s="13"/>
-    </row>
-    <row r="54" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="103"/>
+    </row>
+    <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="87"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="101"/>
       <c r="E54" s="39" t="s">
         <v>34</v>
       </c>
@@ -4696,16 +4436,8 @@
       <c r="CE54" s="12"/>
       <c r="CF54" s="12"/>
       <c r="CG54" s="13"/>
-      <c r="CH54" s="12"/>
-      <c r="CI54" s="12"/>
-      <c r="CJ54" s="12"/>
-      <c r="CK54" s="12"/>
-      <c r="CL54" s="12"/>
-      <c r="CM54" s="12"/>
-      <c r="CN54" s="12"/>
-      <c r="CO54" s="13"/>
-    </row>
-    <row r="55" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="44"/>
       <c r="C55" s="49"/>
@@ -4793,16 +4525,8 @@
       <c r="CE55" s="12"/>
       <c r="CF55" s="12"/>
       <c r="CG55" s="13"/>
-      <c r="CH55" s="12"/>
-      <c r="CI55" s="12"/>
-      <c r="CJ55" s="12"/>
-      <c r="CK55" s="12"/>
-      <c r="CL55" s="12"/>
-      <c r="CM55" s="12"/>
-      <c r="CN55" s="12"/>
-      <c r="CO55" s="13"/>
-    </row>
-    <row r="56" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="44"/>
       <c r="C56" s="49"/>
@@ -4836,13 +4560,13 @@
       <c r="AC56" s="13"/>
       <c r="AD56" s="12"/>
       <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
+      <c r="AF56" s="70"/>
+      <c r="AG56" s="70"/>
       <c r="AH56" s="12"/>
       <c r="AI56" s="12"/>
       <c r="AJ56" s="12"/>
       <c r="AK56" s="13"/>
-      <c r="AL56" s="12"/>
+      <c r="AL56" s="70"/>
       <c r="AM56" s="12"/>
       <c r="AN56" s="12"/>
       <c r="AO56" s="12"/>
@@ -4890,22 +4614,14 @@
       <c r="CE56" s="12"/>
       <c r="CF56" s="12"/>
       <c r="CG56" s="13"/>
-      <c r="CH56" s="12"/>
-      <c r="CI56" s="12"/>
-      <c r="CJ56" s="12"/>
-      <c r="CK56" s="12"/>
-      <c r="CL56" s="12"/>
-      <c r="CM56" s="12"/>
-      <c r="CN56" s="12"/>
-      <c r="CO56" s="13"/>
-    </row>
-    <row r="57" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="89">
+    </row>
+    <row r="57" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="87">
         <v>10</v>
       </c>
-      <c r="B57" s="105"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="76"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="25" t="s">
         <v>4</v>
       </c>
@@ -4929,14 +4645,12 @@
       <c r="BY57" s="17"/>
       <c r="BZ57" s="15"/>
       <c r="CG57" s="17"/>
-      <c r="CH57" s="15"/>
-      <c r="CO57" s="17"/>
-    </row>
-    <row r="58" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="85"/>
+    </row>
+    <row r="58" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="87"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="26" t="s">
         <v>7</v>
       </c>
@@ -4960,14 +4674,12 @@
       <c r="BY58" s="20"/>
       <c r="BZ58" s="18"/>
       <c r="CG58" s="20"/>
-      <c r="CH58" s="18"/>
-      <c r="CO58" s="20"/>
-    </row>
-    <row r="59" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="85"/>
+    </row>
+    <row r="59" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="87"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="26" t="s">
         <v>8</v>
       </c>
@@ -4991,14 +4703,12 @@
       <c r="BY59" s="20"/>
       <c r="BZ59" s="18"/>
       <c r="CG59" s="20"/>
-      <c r="CH59" s="18"/>
-      <c r="CO59" s="20"/>
-    </row>
-    <row r="60" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+    </row>
+    <row r="60" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="87"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="41" t="s">
         <v>9</v>
       </c>
@@ -5082,22 +4792,14 @@
       <c r="CE60" s="19"/>
       <c r="CF60" s="19"/>
       <c r="CG60" s="20"/>
-      <c r="CH60" s="18"/>
-      <c r="CI60" s="19"/>
-      <c r="CJ60" s="19"/>
-      <c r="CK60" s="19"/>
-      <c r="CL60" s="19"/>
-      <c r="CM60" s="19"/>
-      <c r="CN60" s="19"/>
-      <c r="CO60" s="20"/>
-    </row>
-    <row r="61" spans="1:93" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="89">
+    </row>
+    <row r="61" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="87">
         <v>11</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="38" t="s">
         <v>4</v>
       </c>
@@ -5121,14 +4823,12 @@
       <c r="BY61" s="11"/>
       <c r="BZ61" s="9"/>
       <c r="CG61" s="11"/>
-      <c r="CH61" s="9"/>
-      <c r="CO61" s="11"/>
-    </row>
-    <row r="62" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
+    </row>
+    <row r="62" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="87"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="39" t="s">
         <v>6</v>
       </c>
@@ -5142,13 +4842,12 @@
       <c r="BQ62" s="13"/>
       <c r="BY62" s="13"/>
       <c r="CG62" s="13"/>
-      <c r="CO62" s="13"/>
-    </row>
-    <row r="63" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
+    </row>
+    <row r="63" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="87"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
       <c r="E63" s="40" t="s">
         <v>8</v>
       </c>
@@ -5162,13 +4861,12 @@
       <c r="BQ63" s="13"/>
       <c r="BY63" s="13"/>
       <c r="CG63" s="13"/>
-      <c r="CO63" s="13"/>
-    </row>
-    <row r="64" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
+    </row>
+    <row r="64" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="87"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
       <c r="E64" s="39" t="s">
         <v>9</v>
       </c>
@@ -5252,22 +4950,14 @@
       <c r="CE64" s="12"/>
       <c r="CF64" s="12"/>
       <c r="CG64" s="13"/>
-      <c r="CH64" s="12"/>
-      <c r="CI64" s="12"/>
-      <c r="CJ64" s="12"/>
-      <c r="CK64" s="12"/>
-      <c r="CL64" s="12"/>
-      <c r="CM64" s="12"/>
-      <c r="CN64" s="12"/>
-      <c r="CO64" s="13"/>
-    </row>
-    <row r="65" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89">
+    </row>
+    <row r="65" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="87">
         <v>12</v>
       </c>
-      <c r="B65" s="105"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="76"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="25" t="s">
         <v>4</v>
       </c>
@@ -5291,14 +4981,12 @@
       <c r="BY65" s="17"/>
       <c r="BZ65" s="15"/>
       <c r="CG65" s="17"/>
-      <c r="CH65" s="15"/>
-      <c r="CO65" s="17"/>
-    </row>
-    <row r="66" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
+    </row>
+    <row r="66" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="87"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="26" t="s">
         <v>6</v>
       </c>
@@ -5322,14 +5010,12 @@
       <c r="BY66" s="20"/>
       <c r="BZ66" s="18"/>
       <c r="CG66" s="20"/>
-      <c r="CH66" s="18"/>
-      <c r="CO66" s="20"/>
-    </row>
-    <row r="67" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+    </row>
+    <row r="67" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="87"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="26" t="s">
         <v>8</v>
       </c>
@@ -5353,14 +5039,12 @@
       <c r="BY67" s="20"/>
       <c r="BZ67" s="18"/>
       <c r="CG67" s="20"/>
-      <c r="CH67" s="18"/>
-      <c r="CO67" s="20"/>
-    </row>
-    <row r="68" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
+    </row>
+    <row r="68" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="87"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="41" t="s">
         <v>9</v>
       </c>
@@ -5444,22 +5128,14 @@
       <c r="CE68" s="19"/>
       <c r="CF68" s="19"/>
       <c r="CG68" s="20"/>
-      <c r="CH68" s="18"/>
-      <c r="CI68" s="19"/>
-      <c r="CJ68" s="19"/>
-      <c r="CK68" s="19"/>
-      <c r="CL68" s="19"/>
-      <c r="CM68" s="19"/>
-      <c r="CN68" s="19"/>
-      <c r="CO68" s="20"/>
-    </row>
-    <row r="69" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89">
+    </row>
+    <row r="69" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="87">
         <v>13</v>
       </c>
-      <c r="B69" s="86"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
       <c r="E69" s="38" t="s">
         <v>4</v>
       </c>
@@ -5483,14 +5159,12 @@
       <c r="BY69" s="11"/>
       <c r="BZ69" s="9"/>
       <c r="CG69" s="11"/>
-      <c r="CH69" s="9"/>
-      <c r="CO69" s="11"/>
-    </row>
-    <row r="70" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
+    </row>
+    <row r="70" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="87"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="39" t="s">
         <v>6</v>
       </c>
@@ -5504,13 +5178,12 @@
       <c r="BQ70" s="13"/>
       <c r="BY70" s="13"/>
       <c r="CG70" s="13"/>
-      <c r="CO70" s="13"/>
-    </row>
-    <row r="71" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
+    </row>
+    <row r="71" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="87"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
       <c r="E71" s="40" t="s">
         <v>8</v>
       </c>
@@ -5524,13 +5197,12 @@
       <c r="BQ71" s="13"/>
       <c r="BY71" s="13"/>
       <c r="CG71" s="13"/>
-      <c r="CO71" s="13"/>
-    </row>
-    <row r="72" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="89"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
+    </row>
+    <row r="72" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="87"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="39" t="s">
         <v>9</v>
       </c>
@@ -5614,22 +5286,14 @@
       <c r="CE72" s="12"/>
       <c r="CF72" s="12"/>
       <c r="CG72" s="13"/>
-      <c r="CH72" s="12"/>
-      <c r="CI72" s="12"/>
-      <c r="CJ72" s="12"/>
-      <c r="CK72" s="12"/>
-      <c r="CL72" s="12"/>
-      <c r="CM72" s="12"/>
-      <c r="CN72" s="12"/>
-      <c r="CO72" s="13"/>
-    </row>
-    <row r="73" spans="1:93" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="89">
+    </row>
+    <row r="73" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="87">
         <v>14</v>
       </c>
-      <c r="B73" s="76"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="76"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="25" t="s">
         <v>4</v>
       </c>
@@ -5653,14 +5317,12 @@
       <c r="BY73" s="17"/>
       <c r="BZ73" s="15"/>
       <c r="CG73" s="17"/>
-      <c r="CH73" s="15"/>
-      <c r="CO73" s="17"/>
-    </row>
-    <row r="74" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="85"/>
+    </row>
+    <row r="74" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="87"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="26" t="s">
         <v>6</v>
       </c>
@@ -5684,14 +5346,12 @@
       <c r="BY74" s="20"/>
       <c r="BZ74" s="18"/>
       <c r="CG74" s="20"/>
-      <c r="CH74" s="18"/>
-      <c r="CO74" s="20"/>
-    </row>
-    <row r="75" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="85"/>
+    </row>
+    <row r="75" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="87"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="26" t="s">
         <v>8</v>
       </c>
@@ -5715,14 +5375,12 @@
       <c r="BY75" s="20"/>
       <c r="BZ75" s="18"/>
       <c r="CG75" s="20"/>
-      <c r="CH75" s="18"/>
-      <c r="CO75" s="20"/>
-    </row>
-    <row r="76" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
+    </row>
+    <row r="76" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="87"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="41" t="s">
         <v>9</v>
       </c>
@@ -5806,22 +5464,14 @@
       <c r="CE76" s="19"/>
       <c r="CF76" s="19"/>
       <c r="CG76" s="20"/>
-      <c r="CH76" s="18"/>
-      <c r="CI76" s="19"/>
-      <c r="CJ76" s="19"/>
-      <c r="CK76" s="19"/>
-      <c r="CL76" s="19"/>
-      <c r="CM76" s="19"/>
-      <c r="CN76" s="19"/>
-      <c r="CO76" s="20"/>
-    </row>
-    <row r="77" spans="1:93" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="89">
+    </row>
+    <row r="77" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="87">
         <v>15</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
       <c r="E77" s="38" t="s">
         <v>4</v>
       </c>
@@ -5845,14 +5495,12 @@
       <c r="BY77" s="11"/>
       <c r="BZ77" s="9"/>
       <c r="CG77" s="11"/>
-      <c r="CH77" s="9"/>
-      <c r="CO77" s="11"/>
-    </row>
-    <row r="78" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="89"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
+    </row>
+    <row r="78" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="87"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
       <c r="E78" s="39" t="s">
         <v>6</v>
       </c>
@@ -5866,13 +5514,12 @@
       <c r="BQ78" s="13"/>
       <c r="BY78" s="13"/>
       <c r="CG78" s="13"/>
-      <c r="CO78" s="13"/>
-    </row>
-    <row r="79" spans="1:93" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
+    </row>
+    <row r="79" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="87"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
       <c r="E79" s="40" t="s">
         <v>8</v>
       </c>
@@ -5886,13 +5533,12 @@
       <c r="BQ79" s="13"/>
       <c r="BY79" s="13"/>
       <c r="CG79" s="13"/>
-      <c r="CO79" s="13"/>
-    </row>
-    <row r="80" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
+    </row>
+    <row r="80" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="87"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
       <c r="E80" s="39" t="s">
         <v>9</v>
       </c>
@@ -5976,22 +5622,14 @@
       <c r="CE80" s="12"/>
       <c r="CF80" s="12"/>
       <c r="CG80" s="13"/>
-      <c r="CH80" s="12"/>
-      <c r="CI80" s="12"/>
-      <c r="CJ80" s="12"/>
-      <c r="CK80" s="12"/>
-      <c r="CL80" s="12"/>
-      <c r="CM80" s="12"/>
-      <c r="CN80" s="12"/>
-      <c r="CO80" s="13"/>
-    </row>
-    <row r="81" spans="1:93" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="89">
+    </row>
+    <row r="81" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="87">
         <v>16</v>
       </c>
-      <c r="B81" s="76"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="76"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="25" t="s">
         <v>4</v>
       </c>
@@ -6015,14 +5653,12 @@
       <c r="BY81" s="17"/>
       <c r="BZ81" s="15"/>
       <c r="CG81" s="17"/>
-      <c r="CH81" s="15"/>
-      <c r="CO81" s="17"/>
-    </row>
-    <row r="82" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+    </row>
+    <row r="82" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="87"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="26" t="s">
         <v>6</v>
       </c>
@@ -6046,14 +5682,12 @@
       <c r="BY82" s="20"/>
       <c r="BZ82" s="18"/>
       <c r="CG82" s="20"/>
-      <c r="CH82" s="18"/>
-      <c r="CO82" s="20"/>
-    </row>
-    <row r="83" spans="1:93" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="89"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+    </row>
+    <row r="83" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="87"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="26" t="s">
         <v>8</v>
       </c>
@@ -6077,14 +5711,12 @@
       <c r="BY83" s="20"/>
       <c r="BZ83" s="18"/>
       <c r="CG83" s="20"/>
-      <c r="CH83" s="18"/>
-      <c r="CO83" s="20"/>
-    </row>
-    <row r="84" spans="1:93" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="89"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
+    </row>
+    <row r="84" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="87"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="41" t="s">
         <v>9</v>
       </c>
@@ -6168,22 +5800,14 @@
       <c r="CE84" s="19"/>
       <c r="CF84" s="19"/>
       <c r="CG84" s="20"/>
-      <c r="CH84" s="18"/>
-      <c r="CI84" s="19"/>
-      <c r="CJ84" s="19"/>
-      <c r="CK84" s="19"/>
-      <c r="CL84" s="19"/>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="20"/>
-    </row>
-    <row r="85" spans="1:93" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
-      <c r="B85" s="79" t="s">
+    </row>
+    <row r="85" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="88"/>
+      <c r="B85" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
       <c r="E85" s="29"/>
       <c r="F85" s="30"/>
       <c r="G85" s="31"/>
@@ -6267,20 +5891,12 @@
       <c r="CE85" s="31"/>
       <c r="CF85" s="31"/>
       <c r="CG85" s="36"/>
-      <c r="CH85" s="30"/>
-      <c r="CI85" s="31"/>
-      <c r="CJ85" s="31"/>
-      <c r="CK85" s="31"/>
-      <c r="CL85" s="31"/>
-      <c r="CM85" s="31"/>
-      <c r="CN85" s="31"/>
-      <c r="CO85" s="36"/>
-    </row>
-    <row r="86" spans="1:93" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
+    </row>
+    <row r="86" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="88"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
       <c r="E86" s="32"/>
       <c r="F86" s="33"/>
       <c r="G86" s="34"/>
@@ -6362,18 +5978,9 @@
       <c r="CE86" s="34"/>
       <c r="CF86" s="34"/>
       <c r="CG86" s="35"/>
-      <c r="CH86" s="33"/>
-      <c r="CI86" s="34"/>
-      <c r="CJ86" s="34"/>
-      <c r="CK86" s="34"/>
-      <c r="CL86" s="34"/>
-      <c r="CM86" s="34"/>
-      <c r="CN86" s="34"/>
-      <c r="CO86" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="CH1:CO1"/>
+  <mergeCells count="63">
     <mergeCell ref="BJ1:BQ1"/>
     <mergeCell ref="BR1:BY1"/>
     <mergeCell ref="BZ1:CG1"/>
